--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -39995,13 +39995,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.01618</v>
+        <v>0.01626</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>2.58972</v>
+        <v>2.6035</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.26634</v>
+        <v>4.93289</v>
       </c>
     </row>
     <row r="7">
@@ -40011,13 +40011,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>0.25279</v>
+        <v>0.25227</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>40.46963</v>
+        <v>40.38733</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>302.50172</v>
+        <v>303.24717</v>
       </c>
     </row>
     <row r="8">

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -426,6 +426,74 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -26892,12 +26960,6 @@
           <t>Table HC2.1  Structural and geographic characteristics of U.S. homes by housing unit type, 20151</t>
         </is>
       </c>
-      <c r="B2" s="55" t="n"/>
-      <c r="C2" s="55" t="n"/>
-      <c r="D2" s="55" t="n"/>
-      <c r="E2" s="55" t="n"/>
-      <c r="F2" s="55" t="n"/>
-      <c r="G2" s="55" t="n"/>
     </row>
     <row r="3" ht="24" customHeight="1" s="52">
       <c r="A3" s="31" t="n"/>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16200" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SYDEC" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -733,14 +733,14 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="7.6640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="44.6640625" customWidth="1" style="49" min="2" max="2"/>
     <col width="7.6640625" customWidth="1" style="49" min="3" max="26"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.75" customHeight="1" s="49">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>SYDEC Start Year Distributed Electricity Capacity</t>
@@ -751,10 +751,10 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.75" customHeight="1" s="49">
       <c r="B2" s="2" t="n"/>
     </row>
-    <row r="3">
+    <row r="3" ht="14.75" customHeight="1" s="49">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Sources:</t>
@@ -766,100 +766,100 @@
         </is>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.75" customHeight="1" s="49">
       <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.75" customHeight="1" s="49">
       <c r="B5" s="5" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.75" customHeight="1" s="49">
       <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Annual Energy Outlook 2018</t>
         </is>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="B7" s="4" t="inlineStr">
         <is>
           <t>https://www.eia.gov/outlooks/aeo/tables_ref.php</t>
         </is>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Table 22 and Table 23</t>
         </is>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="B9" s="2" t="n"/>
     </row>
-    <row r="10">
+    <row r="10" ht="14.75" customHeight="1" s="49">
       <c r="B10" s="3" t="inlineStr">
         <is>
           <t>Urban vs. Rural Residential Households</t>
         </is>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.75" customHeight="1" s="49">
       <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.75" customHeight="1" s="49">
       <c r="B12" s="5" t="n">
         <v>2018</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="14.75" customHeight="1" s="49">
       <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Residential Energy Consumption Survey (RECS)</t>
         </is>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.75" customHeight="1" s="49">
       <c r="B14" s="4" t="inlineStr">
         <is>
           <t>https://www.eia.gov/consumption/residential/data/2015/hc/hc2.1.xlsx</t>
         </is>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.75" customHeight="1" s="49">
       <c r="B15" s="4" t="inlineStr">
         <is>
           <t>Table HC2.1</t>
         </is>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.75" customHeight="1" s="49">
       <c r="B16" s="2" t="n"/>
     </row>
-    <row r="17">
+    <row r="17" ht="14.75" customHeight="1" s="49">
       <c r="B17" s="6" t="inlineStr">
         <is>
           <t>State Downscaling</t>
         </is>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.75" customHeight="1" s="49">
       <c r="B18" s="8" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="14.75" customHeight="1" s="49">
       <c r="B19" s="8" t="n">
         <v>2018</v>
       </c>
@@ -3871,7 +3871,7 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col hidden="1" width="18.1640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="40" customWidth="1" style="49" min="2" max="2"/>
@@ -4064,15 +4064,15 @@
       <c r="F6" s="15" t="n"/>
       <c r="G6" s="15" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
     </row>
@@ -16024,7 +16024,7 @@
       <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col hidden="1" width="18.1640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="40" customWidth="1" style="49" min="2" max="2"/>
@@ -16217,15 +16217,15 @@
       <c r="F6" s="15" t="n"/>
       <c r="G6" s="15" t="n"/>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="n"/>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="A8" s="2" t="n"/>
       <c r="B8" s="2" t="n"/>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
     </row>
@@ -26966,7 +26966,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="25.1640625" customWidth="1" style="49" min="1" max="1"/>
     <col width="10.1640625" customWidth="1" style="49" min="2" max="7"/>
@@ -27118,7 +27118,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.5" customHeight="1" s="49">
       <c r="A9" s="39" t="inlineStr">
         <is>
           <t>New England</t>
@@ -27145,7 +27145,7 @@
         </is>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="14.5" customHeight="1" s="49">
       <c r="A10" s="39" t="inlineStr">
         <is>
           <t>Middle Atlantic</t>
@@ -27170,7 +27170,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.5" customHeight="1" s="49">
       <c r="A11" s="37" t="inlineStr">
         <is>
           <t>Midwest</t>
@@ -27195,7 +27195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.5" customHeight="1" s="49">
       <c r="A12" s="39" t="inlineStr">
         <is>
           <t>East North Central</t>
@@ -27245,7 +27245,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.5" customHeight="1" s="49">
       <c r="A14" s="37" t="inlineStr">
         <is>
           <t>South</t>
@@ -27270,7 +27270,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.5" customHeight="1" s="49">
       <c r="A15" s="39" t="inlineStr">
         <is>
           <t>South Atlantic</t>
@@ -27295,7 +27295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.5" customHeight="1" s="49">
       <c r="A16" s="39" t="inlineStr">
         <is>
           <t>East South Central</t>
@@ -27345,7 +27345,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.5" customHeight="1" s="49">
       <c r="A18" s="37" t="inlineStr">
         <is>
           <t>West</t>
@@ -27370,7 +27370,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="14.5" customHeight="1" s="49">
       <c r="A19" s="39" t="inlineStr">
         <is>
           <t>Mountain</t>
@@ -27395,7 +27395,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="14.5" customHeight="1" s="49">
       <c r="A20" s="39" t="inlineStr">
         <is>
           <t>Mountain North</t>
@@ -39991,13 +39991,13 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col width="20.5" customWidth="1" style="49" min="1" max="4"/>
     <col width="7.6640625" customWidth="1" style="49" min="5" max="26"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="14.75" customHeight="1" s="49">
       <c r="A1" s="4" t="inlineStr">
         <is>
           <t>MW</t>
@@ -40019,7 +40019,7 @@
         </is>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="14.75" customHeight="1" s="49">
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>hard coal</t>
@@ -40035,7 +40035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="14.75" customHeight="1" s="49">
       <c r="A3" s="4" t="inlineStr">
         <is>
           <t>natural gas nonpeaker</t>
@@ -40051,7 +40051,7 @@
         <v>0.95023</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="14.75" customHeight="1" s="49">
       <c r="A4" s="4" t="inlineStr">
         <is>
           <t>nuclear</t>
@@ -40067,7 +40067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="14.75" customHeight="1" s="49">
       <c r="A5" s="4" t="inlineStr">
         <is>
           <t>hydro</t>
@@ -40083,7 +40083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="14.75" customHeight="1" s="49">
       <c r="A6" s="4" t="inlineStr">
         <is>
           <t>onshore wind</t>
@@ -40099,7 +40099,7 @@
         <v>4.93289</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="14.75" customHeight="1" s="49">
       <c r="A7" s="4" t="inlineStr">
         <is>
           <t>solar PV</t>
@@ -40115,7 +40115,7 @@
         <v>296.6541</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="14.75" customHeight="1" s="49">
       <c r="A8" s="4" t="inlineStr">
         <is>
           <t>solar thermal</t>
@@ -40131,7 +40131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="14.75" customHeight="1" s="49">
       <c r="A9" s="4" t="inlineStr">
         <is>
           <t>biomass</t>
@@ -40147,7 +40147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="14.75" customHeight="1" s="49">
       <c r="A10" s="4" t="inlineStr">
         <is>
           <t>geothermal</t>
@@ -40163,7 +40163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="14.75" customHeight="1" s="49">
       <c r="A11" s="4" t="inlineStr">
         <is>
           <t>petroleum</t>
@@ -40179,7 +40179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="14.75" customHeight="1" s="49">
       <c r="A12" s="4" t="inlineStr">
         <is>
           <t>natural gas peaker</t>
@@ -40195,7 +40195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="14.75" customHeight="1" s="49">
       <c r="A13" s="4" t="inlineStr">
         <is>
           <t>lignite</t>
@@ -40211,7 +40211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="14.75" customHeight="1" s="49">
       <c r="A14" s="4" t="inlineStr">
         <is>
           <t>offshore wind</t>
@@ -40227,7 +40227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="14.75" customHeight="1" s="49">
       <c r="A15" s="4" t="inlineStr">
         <is>
           <t>crude oil</t>
@@ -40243,7 +40243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="14.75" customHeight="1" s="49">
       <c r="A16" s="4" t="inlineStr">
         <is>
           <t>heavy or residual fuel oil</t>
@@ -40259,7 +40259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="14.75" customHeight="1" s="49">
       <c r="A17" s="4" t="inlineStr">
         <is>
           <t>municipal solid waste</t>
@@ -40275,19 +40275,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="14.75" customHeight="1" s="49">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
       <c r="D18" s="2" t="n"/>
     </row>
-    <row r="19">
+    <row r="19" ht="14.75" customHeight="1" s="49">
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
       <c r="D19" s="2" t="n"/>
     </row>
-    <row r="20">
+    <row r="20" ht="14.75" customHeight="1" s="49">
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>

--- a/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
+++ b/InputData/bldgs/SYDEC/Start Year Distributed Electricity Capacity.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\template_state_3.3\bldgs\SYDEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\United States\RMI-temp\bldgs\SYDEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859E58FB-280B-40F9-822E-8C463EC35B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D978AB-7610-4385-B33B-1C4B4735BABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="12645" tabRatio="670" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="14910" windowHeight="14820" tabRatio="670" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AEO Table 21" sheetId="2" r:id="rId2"/>
-    <sheet name="AEO Table 22" sheetId="3" r:id="rId3"/>
-    <sheet name="RECS HC2.1" sheetId="4" r:id="rId4"/>
-    <sheet name="SYDEC" sheetId="5" r:id="rId5"/>
+    <sheet name="AEO Table 21" sheetId="11" r:id="rId2"/>
+    <sheet name="AEO Table 22" sheetId="12" r:id="rId3"/>
+    <sheet name="RECS HC2.1" sheetId="13" r:id="rId4"/>
+    <sheet name="SYDEC" sheetId="6" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -51,9 +51,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -61,80 +58,524 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="554">
+  <si>
+    <t>Energy Information Administration</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Equipment Stock (million units)</t>
+  </si>
+  <si>
+    <t>Stock Average Equipment Efficiency</t>
+  </si>
+  <si>
+    <t>- -</t>
+  </si>
+  <si>
+    <t>Commercial Building Delivered</t>
+  </si>
+  <si>
+    <t>Commercial Building Floorspace</t>
+  </si>
+  <si>
+    <t>nuclear</t>
+  </si>
+  <si>
+    <t>hydro</t>
+  </si>
+  <si>
+    <t>solar PV</t>
+  </si>
+  <si>
+    <t>solar thermal</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>geothermal</t>
+  </si>
+  <si>
+    <t>petroleum</t>
+  </si>
+  <si>
+    <t>natural gas peaker</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>New England</t>
+  </si>
+  <si>
+    <t>Middle Atlantic</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>East North Central</t>
+  </si>
+  <si>
+    <t>West North Central</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>South Atlantic</t>
+  </si>
+  <si>
+    <t>East South Central</t>
+  </si>
+  <si>
+    <t>West South Central</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Mountain North</t>
+  </si>
+  <si>
+    <t>Mountain South</t>
+  </si>
+  <si>
+    <t>Pacific</t>
+  </si>
+  <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Marine</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>1950 to 1959</t>
+  </si>
+  <si>
+    <t>1960 to 1969</t>
+  </si>
+  <si>
+    <t>1970 to 1979</t>
+  </si>
+  <si>
+    <t>1980 to 1989</t>
+  </si>
+  <si>
+    <t>1990 to 1999</t>
+  </si>
+  <si>
+    <t>2000 to 2009</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Brick</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Stucco</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Basement</t>
+  </si>
+  <si>
+    <t>1 or 2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Distributed Generation and Capacity</t>
+  </si>
+  <si>
+    <t>Urban vs. Rural Residential Households</t>
+  </si>
+  <si>
+    <t>Residential Energy Consumption Survey (RECS)</t>
+  </si>
+  <si>
+    <t>Table HC2.1</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
+  </si>
+  <si>
+    <t>Number of housing units (million)</t>
+  </si>
+  <si>
+    <t>Housing unit type</t>
+  </si>
+  <si>
+    <t>Single-family detached</t>
+  </si>
+  <si>
+    <t>Single-family attached</t>
+  </si>
+  <si>
+    <t>Mobile home</t>
+  </si>
+  <si>
+    <t>All homes</t>
+  </si>
+  <si>
+    <t>Census region and division</t>
+  </si>
+  <si>
+    <t>Urbanized area</t>
+  </si>
+  <si>
+    <t>Urban cluster</t>
+  </si>
+  <si>
+    <t>Very cold/Cold</t>
+  </si>
+  <si>
+    <t>Mixed-humid</t>
+  </si>
+  <si>
+    <t>Mixed-dry/Hot-dry</t>
+  </si>
+  <si>
+    <t>Hot-humid</t>
+  </si>
+  <si>
+    <t>Year of construction</t>
+  </si>
+  <si>
+    <t>Before 1950</t>
+  </si>
+  <si>
+    <t>2010 to 2015</t>
+  </si>
+  <si>
+    <t>Number of stories</t>
+  </si>
+  <si>
+    <t>Not asked (apartments and mobile homes)</t>
+  </si>
+  <si>
+    <t>Major outside wall construction</t>
+  </si>
+  <si>
+    <t>Some other material</t>
+  </si>
+  <si>
+    <t>Major roofing material</t>
+  </si>
+  <si>
+    <t>Shingles (composition or asphalt)</t>
+  </si>
+  <si>
+    <t>Wood shingles or shakes</t>
+  </si>
+  <si>
+    <t>Ceramic or clay tiles</t>
+  </si>
+  <si>
+    <t>Concrete tiles</t>
+  </si>
+  <si>
+    <t>Slate or synthetic slate</t>
+  </si>
+  <si>
+    <t>Not asked (apartments in buildings with 5 or more units)</t>
+  </si>
+  <si>
+    <t>Total number of rooms (excluding bathrooms)</t>
+  </si>
+  <si>
+    <t>9 or more</t>
+  </si>
+  <si>
+    <t>Number of bedrooms</t>
+  </si>
+  <si>
+    <t>5 or more</t>
+  </si>
+  <si>
+    <t>Number of other rooms (excluding bathrooms)</t>
+  </si>
+  <si>
+    <t>Number of full bathrooms</t>
+  </si>
+  <si>
+    <t>3 or more</t>
+  </si>
+  <si>
+    <t>Number of half bathrooms</t>
+  </si>
+  <si>
+    <t>2 or more</t>
+  </si>
+  <si>
+    <t>Finished basement</t>
+  </si>
+  <si>
+    <t>Unfinished basement</t>
+  </si>
+  <si>
+    <t>Attic</t>
+  </si>
+  <si>
+    <t>Finished attic</t>
+  </si>
+  <si>
+    <t>Unfinished attic</t>
+  </si>
+  <si>
+    <t>Attached garage</t>
+  </si>
+  <si>
+    <t>1-car garage</t>
+  </si>
+  <si>
+    <t>2-car garage</t>
+  </si>
+  <si>
+    <t>3 or more car garage</t>
+  </si>
+  <si>
+    <t>Adequacy of insulation</t>
+  </si>
+  <si>
+    <t>Well insulated</t>
+  </si>
+  <si>
+    <t>Adequately insulated</t>
+  </si>
+  <si>
+    <t>Poorly insulated</t>
+  </si>
+  <si>
+    <t>Home is too drafty during the winter</t>
+  </si>
+  <si>
+    <t>Some of the time</t>
+  </si>
+  <si>
+    <t>Most of the time</t>
+  </si>
+  <si>
+    <t>All of the time</t>
+  </si>
+  <si>
+    <t>Not asked (mobile homes)</t>
+  </si>
+  <si>
+    <t>Number of windows</t>
+  </si>
+  <si>
+    <t>1 to 2</t>
+  </si>
+  <si>
+    <t>3 to 5</t>
+  </si>
+  <si>
+    <t>6 to 9</t>
+  </si>
+  <si>
+    <t>10 to 15</t>
+  </si>
+  <si>
+    <t>16 to 19</t>
+  </si>
+  <si>
+    <t>20 to 29</t>
+  </si>
+  <si>
+    <t>30 or more</t>
+  </si>
+  <si>
+    <t>Type of glass in windows</t>
+  </si>
+  <si>
+    <t>Single-pane glass</t>
+  </si>
+  <si>
+    <t>Double-pane glass</t>
+  </si>
+  <si>
+    <t>Triple-pane glass</t>
+  </si>
+  <si>
+    <t>Window frame material</t>
+  </si>
+  <si>
+    <t>Metal (aluminum)</t>
+  </si>
+  <si>
+    <t>Vinyl</t>
+  </si>
+  <si>
+    <t>Fiberglass</t>
+  </si>
+  <si>
+    <t>Composite</t>
+  </si>
+  <si>
+    <t>Don't know</t>
+  </si>
+  <si>
+    <t>Electricity meter is a smart meter</t>
+  </si>
+  <si>
+    <t>Park a car within 20 feet of electrical outlet</t>
+  </si>
+  <si>
+    <t>Natural gas available in neighborhood</t>
+  </si>
+  <si>
+    <t>Distributed solar generation</t>
+  </si>
+  <si>
+    <t>Not asked (apartments)</t>
+  </si>
+  <si>
+    <t>Back-up generator in home</t>
+  </si>
+  <si>
+    <t>Swimming pool</t>
+  </si>
+  <si>
+    <t>Months swimming pool is used</t>
+  </si>
+  <si>
+    <t>0 to 3</t>
+  </si>
+  <si>
+    <t>4 to 7</t>
+  </si>
+  <si>
+    <t>8 to 12</t>
+  </si>
+  <si>
+    <t>No swimming pool</t>
+  </si>
+  <si>
+    <t>Heated swimming pool and fuel</t>
+  </si>
+  <si>
+    <t>Heated swimming pool</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Natural gas</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Some other fuel</t>
+  </si>
+  <si>
+    <t>Unheated swimming pool</t>
+  </si>
+  <si>
+    <t>Hot tub</t>
+  </si>
+  <si>
+    <t>Months hot tub is used</t>
+  </si>
+  <si>
+    <t>No hot tub</t>
+  </si>
+  <si>
+    <t>Hot tub heating fuel</t>
+  </si>
+  <si>
+    <t>Hot tub used 0 months</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/tables_ref.php</t>
+  </si>
+  <si>
+    <t>Urban Rural Split</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
   <si>
     <t>SYDEC Start Year Distributed Electricity Capacity</t>
   </si>
   <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>Distributed Generation and Capacity</t>
-  </si>
-  <si>
-    <t>Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Annual Energy Outlook 2021</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/outlooks/aeo/tables_ref.php</t>
-  </si>
-  <si>
-    <t>Table 21 and Table 22</t>
-  </si>
-  <si>
-    <t>Urban vs. Rural Residential Households</t>
-  </si>
-  <si>
-    <t>Residential Energy Consumption Survey (RECS)</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/consumption/residential/data/2020/?src=%E2%80%B9%20Consumption%20%20%20%20%20%20Residential%20Energy%20Consumption%20Survey%20(RECS)-f1</t>
-  </si>
-  <si>
-    <t>https://www.eia.gov/consumption/residential/data/2020/hc/xls/HC%202.1.xlsx</t>
-  </si>
-  <si>
-    <t>Table HC2.1</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>urban residential</t>
+  </si>
+  <si>
+    <t>rural residential</t>
+  </si>
+  <si>
+    <t>commercial</t>
   </si>
   <si>
     <t>The start year is the year before the first simulated year.</t>
   </si>
   <si>
+    <t>The start year is:</t>
+  </si>
+  <si>
     <t>This can be adjusted using the yellow field below.</t>
   </si>
   <si>
-    <t>The start year is:</t>
-  </si>
-  <si>
-    <t>Urban Rural Split</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
     <t>gigawatts_to_megawatts</t>
   </si>
   <si>
     <t>Table 21.  Residential Sector Equipment Stock and Efficiency, and Distributed Generation</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2018&amp;end=2050&amp;f=A&amp;sourcekey=0</t>
-  </si>
-  <si>
-    <t>Thu Apr 13 2023 16:36:32 GMT-0400 (Eastern Daylight Time)</t>
-  </si>
-  <si>
     <t>Source: U.S. Energy Information Administration</t>
   </si>
   <si>
@@ -147,12 +588,6 @@
     <t>units</t>
   </si>
   <si>
-    <t>Growth (2020-2050)</t>
-  </si>
-  <si>
-    <t>Equipment Stock (million units)</t>
-  </si>
-  <si>
     <t>Main Space Heaters</t>
   </si>
   <si>
@@ -162,9 +597,6 @@
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Electric Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_EHP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>millions</t>
   </si>
   <si>
@@ -174,126 +606,78 @@
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Electric Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_ELO_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Natural Gas Heat Pumps</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Natural Gas Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_NHU_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Natural Gas Other</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Natural Gas Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_NGO_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Distillate Fuel Oil</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Distillate Fuel Oil: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_DFO_NA_NA_MILL.A</t>
-  </si>
-  <si>
-    <t>Propane</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Propane: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_PROP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Kerosene</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Kerosene: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_KRS_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Wood Stoves</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Wood Stoves: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_WDS_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Geothermal Heat Pumps</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Geothermal Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_GEHP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Main Space Heaters: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_TOT_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Space Cooling (million units)</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Space Cooling: Electric Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_EHP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Space Cooling: Natural Gas Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_NHU_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Space Cooling: Geothermal Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_GEHP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Central Air Conditioners</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Space Cooling: Central Air Conditioners: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_CAC_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Room Air Conditioners</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Space Cooling: Room Air Conditioners: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_RAC_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Space Cooling: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_TOT_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Water Heaters (million units)</t>
   </si>
   <si>
@@ -303,93 +687,54 @@
     <t>Residential Equipment: Equipment Stock: Water Heaters: Electric: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_ELE_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Natural Gas</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Water Heaters: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_NG_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Water Heaters: Distillate Fuel Oil: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_DFO_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Water Heaters: Propane: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_PROP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Solar Thermal</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Water Heaters: Solar Thermal: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_SLR_THERM_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Water Heaters: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_TOT_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Cooking Equipment (million units)</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Cooking Equipment: Electric: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_ELE_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Cooking Equipment: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_NG_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Cooking Equipment: Propane: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_PROP_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Cooking Equipment: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_TOT_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Clothes Dryers (million units)</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Clothes Dryers: Electric: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CDR_ELE_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Clothes Dryers: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CDR_NG_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Equipment Stock: Clothes Dryers: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CDR_TOT_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Other Appliances (million units)</t>
   </si>
   <si>
@@ -399,30 +744,18 @@
     <t>Residential Equipment: Equipment Stock: Other Appliances: Refrigerators: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_OTAR_RFG_NA_NA_MILL.A</t>
-  </si>
-  <si>
     <t>Freezers</t>
   </si>
   <si>
     <t>Residential Equipment: Equipment Stock: Other Appliances: Freezers: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_OTAR_FRZ_NA_NA_MILL.A</t>
-  </si>
-  <si>
-    <t>Stock Average Equipment Efficiency</t>
-  </si>
-  <si>
     <t>Electric Heat Pumps (HSPF)</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Main Space Heaters: Electric Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_EHP_NA_NA_HSPF.A</t>
-  </si>
-  <si>
     <t>HSPF</t>
   </si>
   <si>
@@ -432,9 +765,6 @@
     <t>Residential Equipment: Stock Average Efficiency: Main Space Heaters: Natural Gas Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_NHU_NA_NA_GCOP.A</t>
-  </si>
-  <si>
     <t>GCOP</t>
   </si>
   <si>
@@ -444,9 +774,6 @@
     <t>Residential Equipment: Stock Average Efficiency: Main Space Heaters: Geothermal Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_GEHP_NA_NA_COP.A</t>
-  </si>
-  <si>
     <t>COP</t>
   </si>
   <si>
@@ -456,9 +783,6 @@
     <t>Residential Equipment: Stock Average Efficiency: Main Space Heaters: Natural Gas Furnace: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_NFR_NA_NA_AFUE.A</t>
-  </si>
-  <si>
     <t>AFUE</t>
   </si>
   <si>
@@ -468,9 +792,6 @@
     <t>Residential Equipment: Stock Average Efficiency: Main Space Heaters: Distillate Furnace: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_DFR_NA_NA_AFUE.A</t>
-  </si>
-  <si>
     <t>Space Cooling</t>
   </si>
   <si>
@@ -480,27 +801,18 @@
     <t>Residential Equipment: Stock Average Efficiency: Space Cooling: Electric Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_EHP_NA_NA_SEER.A</t>
-  </si>
-  <si>
     <t>SEER</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Space Cooling: Natural Gas Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_NHU_NA_NA_GCOP.A</t>
-  </si>
-  <si>
     <t>Geothermal Heat Pumps (EER)</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Space Cooling: Geothermal Heat Pumps: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_GEHP_NA_NA_EER.A</t>
-  </si>
-  <si>
     <t>EER</t>
   </si>
   <si>
@@ -510,18 +822,12 @@
     <t>Residential Equipment: Stock Average Efficiency: Space Cooling: Central Air Conditioners: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_CAC_NA_NA_SEER.A</t>
-  </si>
-  <si>
     <t>Room Air Conditioners (EER)</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Space Cooling: Room Air Conditioners: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_RAC_NA_NA_EER.A</t>
-  </si>
-  <si>
     <t>Water Heaters</t>
   </si>
   <si>
@@ -531,9 +837,6 @@
     <t>Residential Equipment: Stock Average Efficiency: Water Heaters: Electric: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_ELE_NA_NA_EF.A</t>
-  </si>
-  <si>
     <t>EF</t>
   </si>
   <si>
@@ -543,45 +846,30 @@
     <t>Residential Equipment: Stock Average Efficiency: Water Heaters: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_NG_NA_NA_EF.A</t>
-  </si>
-  <si>
     <t>Distillate Fuel Oil (EF)</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Water Heaters: Distillate Fuel Oil: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_DFO_NA_NA_EF.A</t>
-  </si>
-  <si>
     <t>Propane (EF)</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Water Heaters: Propane: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_PROP_NA_NA_EF.A</t>
-  </si>
-  <si>
     <t>Other Appliances (kilowatthours per year)</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Other Appliances: Refrigerators: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_OTAR_RFG_NA_NA_KWH.A</t>
-  </si>
-  <si>
     <t>kWh</t>
   </si>
   <si>
     <t>Residential Equipment: Stock Average Efficiency: Other Appliances: Freezers: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_OTAR_FRZ_NA_NA_KWH.A</t>
-  </si>
-  <si>
     <t>Building Shell Efficiency Index</t>
   </si>
   <si>
@@ -594,9 +882,6 @@
     <t>Residential Equipment: Building Shell Efficiency Index: Space Heating: Pre-2015 Homes: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPH_OLD_NA_NA_Y15EQ1.A</t>
-  </si>
-  <si>
     <t>2015=1.00</t>
   </si>
   <si>
@@ -606,36 +891,21 @@
     <t>Residential Equipment: Building Shell Efficiency Index: Space Heating: New Construction: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPH_NCO_NA_NA_Y15EQ1.A</t>
-  </si>
-  <si>
     <t>All Homes</t>
   </si>
   <si>
     <t>Residential Equipment: Building Shell Efficiency Index: Space Heating: All Homes: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPH_AHM_NA_NA_Y15EQ1.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Building Shell Efficiency Index: Space Cooling: Pre-2015 Homes: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPC_OLD_NA_NA_Y15EQ1.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Building Shell Efficiency Index: Space Cooling: New Construction: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPC_NCO_NA_NA_Y15EQ1.A</t>
-  </si>
-  <si>
     <t>Residential Equipment: Building Shell Efficiency Index: Space Cooling: All Homes: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPC_AHM_NA_NA_Y15EQ1.A</t>
-  </si>
-  <si>
     <t>Distributed Generation and</t>
   </si>
   <si>
@@ -651,69 +921,42 @@
     <t>Residential: Combined Heat and Power: Generating Capacity: Fuel Cells: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_FCL_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>GW</t>
   </si>
   <si>
-    <t>- -</t>
-  </si>
-  <si>
     <t>Solar Photovoltaic</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Generating Capacity: Solar Photovoltaic: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_RESD_CHP_SLR_PHTVL_NA_MW.A</t>
-  </si>
-  <si>
     <t>Wind</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Generating Capacity: Wind: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_RESD_CHP_WND_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Residential: Combined Heat and Power: Generating Capacity: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_RESD_CHP_TOT_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Net Generation (billion kilowatthours)</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Net Generation: Fuel Cells: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_FCL_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>billion kWh</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Net Generation: Solar Photovoltaic: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_SLR_PHTVL_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Residential: Combined Heat and Power: Net Generation: Wind: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_WND_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Residential: Combined Heat and Power: Net Generation: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_TOT_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Disposition</t>
   </si>
   <si>
@@ -723,60 +966,33 @@
     <t>Residential: Combined Heat and Power: Net Generation: Sales to the Grid: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_STG_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Generation for Own Use</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Net Generation: Generation for Own Use: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_GFO_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Energy Input (trillion Btu)</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Energy Input: Fuel Cells: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_FCL_NA_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>trillion Btu</t>
   </si>
   <si>
     <t>Residential: Combined Heat and Power: Energy Input: Solar Photovoltaic: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_SLR_PHTVL_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>Residential: Combined Heat and Power: Energy Input: Wind: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_WND_NA_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>Residential: Combined Heat and Power: Energy Input: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_TOT_NA_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>Table 22.  Commercial Sector Energy Consumption, Floorspace, Equipment Efficiency, and Distributed Generation</t>
   </si>
   <si>
-    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=32-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2018&amp;end=2050&amp;f=A&amp;sourcekey=0</t>
-  </si>
-  <si>
-    <t>Thu Apr 13 2023 16:38:22 GMT-0400 (Eastern Daylight Time)</t>
-  </si>
-  <si>
-    <t>Commercial Building Delivered</t>
-  </si>
-  <si>
     <t>Energy Consumption (quadrillion Btu)</t>
   </si>
   <si>
@@ -786,9 +1002,6 @@
     <t>Commercial: Delivered Energy Use: Assembly: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_ASB_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>quads</t>
   </si>
   <si>
@@ -798,243 +1011,141 @@
     <t>Commercial: Delivered Energy Use: Education: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_EDD_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Food Sales</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Food Sales: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_FDSA_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Food Service</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Food Service: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_FSC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Health Care</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Health Care: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_HLC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Lodging</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Lodging: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_LGC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Office - Large</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Office - Large: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_OFLC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Office - Small</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Office - Small: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_OFSC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Mercantile/Service</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Mercantile/Service: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_MCSC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Warehouse</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Warehouse: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_WHRC_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Other</t>
   </si>
   <si>
     <t>Commercial: Delivered Energy Use: Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_OTHU_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
     <t>Commercial: Delivered Energy Use: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_NA_DELE_NA_NA_QBTU.A</t>
-  </si>
-  <si>
-    <t>Commercial Building Floorspace</t>
-  </si>
-  <si>
     <t>(billion square feet)</t>
   </si>
   <si>
     <t>Commercial: Floorspace: Assembly: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_ASB_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>billion sq ft</t>
   </si>
   <si>
     <t>Commercial: Floorspace: Education: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_EDD_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Food Sales: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_FDSA_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Food Service: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_FSC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Health Care: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_HLC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Lodging: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_LGC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Office - Large: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_OFLC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Office - Small: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_OFSC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Mercantile/Service: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_MCSC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Warehouse: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_WHRC_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_OTHU_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
     <t>Commercial: Floorspace: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_NA_NA_NA_NA_BLNSQFT.A</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Space Heating: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPH_ELC_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Btu Out/Btu In</t>
   </si>
   <si>
     <t>Commercial: Stock Average Efficiency: Space Heating: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPH_NG_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Space Heating: Distillate Fuel Oil: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPH_DFO_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Space Cooling: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPC_ELC_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Space Cooling: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPC_NG_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Water Heating</t>
   </si>
   <si>
     <t>Commercial: Stock Average Efficiency: Water Heating: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_WTHT_ELC_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Water Heating: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_WTHT_NG_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Water Heating: Distillate Fuel Oil: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_WTHT_DFO_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Ventilation (cubic feet per minute per Btu)</t>
   </si>
   <si>
     <t>Commercial: Stock Average Efficiency: Ventilation: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_VNTC_ELC_NA_NA_CUFTPMINPBTU.A</t>
-  </si>
-  <si>
     <t>cu ft/minute/Btu</t>
   </si>
   <si>
@@ -1044,15 +1155,9 @@
     <t>Commercial: Stock Average Efficiency: Cooking: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_CGR_ELC_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Commercial: Stock Average Efficiency: Cooking: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_CGR_NG_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Lighting Efficacy</t>
   </si>
   <si>
@@ -1062,9 +1167,6 @@
     <t>Commercial: Stock Average Efficiency: Lighting Efficacy: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_LGHTNG_ELC_NA_NA_LMNPWATT.A</t>
-  </si>
-  <si>
     <t>lumens/watt</t>
   </si>
   <si>
@@ -1074,60 +1176,33 @@
     <t>Commercial: Stock Average Efficiency: Refrigeration: Electricity: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_REFR_ELC_NA_NA_BTUOTPBTUIN.A</t>
-  </si>
-  <si>
     <t>Petroleum</t>
   </si>
   <si>
     <t>Commercial: Combined Heat and Power: Generating Capacity: Petroleum: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_PET_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Generating Capacity: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_NG_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Generating Capacity: Solar Photovoltaic: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_SLR_PHTVL_NA_MW.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Generating Capacity: Wind: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_WND_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Generating Capacity: Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_OTH_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Generating Capacity: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_TOT_NA_NA_MW.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Net Generation: Petroleum: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_PET_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Net Generation: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_NG_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Net Generation: Solar Photovoltaic: High oil and gas supply</t>
   </si>
   <si>
@@ -1137,9 +1212,6 @@
     <t>Commercial: Combined Heat and Power: Net Generation: Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_OTH_NA_NA_MILLKWH.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Net Generation: Total: High oil and gas supply</t>
   </si>
   <si>
@@ -1152,15 +1224,9 @@
     <t>Commercial: Combined Heat and Power: Energy Input: Petroleum: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_PET_NA_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Energy Input: Natural Gas: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_NG_NA_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Energy Input: Solar Photovoltaic: High oil and gas supply</t>
   </si>
   <si>
@@ -1170,546 +1236,616 @@
     <t>Commercial: Combined Heat and Power: Energy Input: Other: High oil and gas supply</t>
   </si>
   <si>
-    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_OTH_NA_NA_TRLBTU.A</t>
-  </si>
-  <si>
     <t>Commercial: Combined Heat and Power: Energy Input: Total: High oil and gas supply</t>
   </si>
   <si>
-    <t>Preliminary data release date: March 2022</t>
-  </si>
-  <si>
-    <t>Table HC2.1  Structural and geographic characteristics of U.S. homes, by housing unit type, 2020</t>
-  </si>
-  <si>
-    <t>Number of housing units (million)</t>
-  </si>
-  <si>
-    <t>Housing unit type</t>
-  </si>
-  <si>
-    <t>Total U.S.a</t>
-  </si>
-  <si>
-    <t>Single-family detached</t>
-  </si>
-  <si>
-    <t>Single-family attached</t>
+    <r>
+      <t xml:space="preserve">Source: U.S. Energy Information Administration, Office of Energy Demand and Integrated Statistics, Form EIA-457A of the </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2020 Residential Energy Consumption Survey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Notes:  Because of rounding, data may not sum to totals.  See RECS Terminology for definition of terms used in these tables.</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total U.S. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">includes all primary occupied housing units in the 50 states and the District of Columbia. Vacant housing units, seasonal units, second homes, military houses, and group quarters are excluded.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">b </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Housing units are classified using criteria created by the U.S. Census Bureau based on 2010 Census data. Urbanized areas are densely settled groupings of blocks or tracts with 50,000 or more people, while urban clusters have at least 2,500 but less than 50,000 people. All other areas are rural.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">c </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The Building America program, sponsored by the U.S. Department of Energy’s Office of Energy Efficiency and Renewable Energy (EERE), created these climate regions. We combined climate regions for this publication. The Subarctic region is included with data for Very-cold and Cold.
+Q = Data withheld because either the relative standard error (RSE) was greater than 50% or fewer than 10 households in reporting sample.
+N = No households in reporting sample.</t>
+    </r>
+  </si>
+  <si>
+    <t>Utility had planned or unplanned blackout</t>
+  </si>
+  <si>
+    <t>Unable to pay electric bill</t>
+  </si>
+  <si>
+    <t>Natural disaster or weather      event</t>
+  </si>
+  <si>
+    <t>Experienced power outage lasting more than 24 hours</t>
+  </si>
+  <si>
+    <t>Does not use natural gas</t>
+  </si>
+  <si>
+    <t>Uses natural gas</t>
+  </si>
+  <si>
+    <t>Charge at home</t>
+  </si>
+  <si>
+    <t>Own or lease an all-electric or plug-in hybrid electric vehicle</t>
+  </si>
+  <si>
+    <t>Number of sliding glass or French doors</t>
+  </si>
+  <si>
+    <t>Any ceilings higher than 8 feet</t>
+  </si>
+  <si>
+    <t>Not insulated</t>
+  </si>
+  <si>
+    <t>Shingle (composition)</t>
+  </si>
+  <si>
+    <t>Concrete block</t>
+  </si>
+  <si>
+    <t>Siding (aluminum, fiber cement, vinyl, or steel)</t>
+  </si>
+  <si>
+    <t>Split-level</t>
+  </si>
+  <si>
+    <t>3 or more stories</t>
+  </si>
+  <si>
+    <t>2 stories</t>
+  </si>
+  <si>
+    <t>1 story</t>
+  </si>
+  <si>
+    <t>2016 to 2020</t>
+  </si>
+  <si>
+    <r>
+      <t>Climate region</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Census urban-rural classification</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Apartments
+(5 or more unit building)</t>
   </si>
   <si>
     <t>Apartments 
 (2–4 unit building)</t>
   </si>
   <si>
-    <t>Apartments
-(5 or more unit building)</t>
-  </si>
-  <si>
-    <t>Mobile home</t>
-  </si>
-  <si>
-    <t>All homes</t>
-  </si>
-  <si>
-    <t>Census region and division</t>
-  </si>
-  <si>
-    <t>Northeast</t>
-  </si>
-  <si>
-    <t>New England</t>
-  </si>
-  <si>
-    <t>Middle Atlantic</t>
-  </si>
-  <si>
-    <t>Midwest</t>
-  </si>
-  <si>
-    <t>East North Central</t>
-  </si>
-  <si>
-    <t>West North Central</t>
-  </si>
-  <si>
-    <t>South</t>
-  </si>
-  <si>
-    <t>South Atlantic</t>
-  </si>
-  <si>
-    <t>East South Central</t>
-  </si>
-  <si>
-    <t>West South Central</t>
-  </si>
-  <si>
-    <t>West</t>
-  </si>
-  <si>
-    <t>Mountain</t>
-  </si>
-  <si>
-    <t>Mountain North</t>
-  </si>
-  <si>
-    <t>Mountain South</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Census urban-rural classificationb</t>
-  </si>
-  <si>
-    <t>Urbanized area</t>
-  </si>
-  <si>
-    <t>Urban cluster</t>
-  </si>
-  <si>
-    <t>Climate regionc</t>
-  </si>
-  <si>
-    <t>Very cold/Cold</t>
-  </si>
-  <si>
-    <t>Mixed-humid</t>
-  </si>
-  <si>
-    <t>Mixed-dry/Hot-dry</t>
-  </si>
-  <si>
-    <t>Hot-humid</t>
-  </si>
-  <si>
-    <t>Marine</t>
-  </si>
-  <si>
-    <t>Year of construction</t>
-  </si>
-  <si>
-    <t>Before 1950</t>
-  </si>
-  <si>
-    <t>1950 to 1959</t>
-  </si>
-  <si>
-    <t>1960 to 1969</t>
-  </si>
-  <si>
-    <t>1970 to 1979</t>
-  </si>
-  <si>
-    <t>1980 to 1989</t>
-  </si>
-  <si>
-    <t>1990 to 1999</t>
-  </si>
-  <si>
-    <t>2000 to 2009</t>
-  </si>
-  <si>
-    <t>2010 to 2015</t>
-  </si>
-  <si>
-    <t>2016 to 2020</t>
-  </si>
-  <si>
-    <t>Number of stories</t>
-  </si>
-  <si>
-    <t>1 story</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>2 stories</t>
-  </si>
-  <si>
-    <t>3 or more stories</t>
-  </si>
-  <si>
-    <t>Split-level</t>
-  </si>
-  <si>
-    <t>Not asked (apartments and mobile homes)</t>
-  </si>
-  <si>
-    <t>Major outside wall construction</t>
-  </si>
-  <si>
-    <t>Siding (aluminum, fiber cement, vinyl, or steel)</t>
-  </si>
-  <si>
-    <t>Brick</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Stucco</t>
-  </si>
-  <si>
-    <t>Concrete block</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>Shingle (composition)</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Some other material</t>
-  </si>
-  <si>
-    <t>Major roofing material</t>
-  </si>
-  <si>
-    <t>Shingles (composition or asphalt)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Wood shingles or shakes</t>
-  </si>
-  <si>
-    <t>Ceramic or clay tiles</t>
-  </si>
-  <si>
-    <t>Concrete tiles</t>
-  </si>
-  <si>
-    <t>Slate or synthetic slate</t>
-  </si>
-  <si>
-    <t>Not asked (apartments in buildings with 5 or more units)</t>
-  </si>
-  <si>
-    <t>Total number of rooms (excluding bathrooms)</t>
-  </si>
-  <si>
-    <t>1 or 2</t>
-  </si>
-  <si>
-    <t>9 or more</t>
-  </si>
-  <si>
-    <t>Number of bedrooms</t>
-  </si>
-  <si>
-    <t>5 or more</t>
-  </si>
-  <si>
-    <t>Number of other rooms (excluding bathrooms)</t>
-  </si>
-  <si>
-    <t>Number of full bathrooms</t>
-  </si>
-  <si>
-    <t>3 or more</t>
-  </si>
-  <si>
-    <t>Number of half bathrooms</t>
-  </si>
-  <si>
-    <t>2 or more</t>
-  </si>
-  <si>
-    <t>Basement</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Finished basement</t>
-  </si>
-  <si>
-    <t>Unfinished basement</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Attic</t>
-  </si>
-  <si>
-    <t>Finished attic</t>
-  </si>
-  <si>
-    <t>Unfinished attic</t>
-  </si>
-  <si>
-    <t>Attached garage</t>
-  </si>
-  <si>
-    <t>1-car garage</t>
-  </si>
-  <si>
-    <t>2-car garage</t>
-  </si>
-  <si>
-    <t>3 or more car garage</t>
-  </si>
-  <si>
-    <t>Adequacy of insulation</t>
-  </si>
-  <si>
-    <t>Well insulated</t>
-  </si>
-  <si>
-    <t>Adequately insulated</t>
-  </si>
-  <si>
-    <t>Poorly insulated</t>
-  </si>
-  <si>
-    <t>Not insulated</t>
-  </si>
-  <si>
-    <t>Home is too drafty during the winter</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>Some of the time</t>
-  </si>
-  <si>
-    <t>Most of the time</t>
-  </si>
-  <si>
-    <t>All of the time</t>
-  </si>
-  <si>
-    <t>Any ceilings higher than 8 feet</t>
-  </si>
-  <si>
-    <t>Not asked (mobile homes)</t>
-  </si>
-  <si>
-    <t>Number of windows</t>
-  </si>
-  <si>
-    <t>1 to 2</t>
-  </si>
-  <si>
-    <t>3 to 5</t>
-  </si>
-  <si>
-    <t>6 to 9</t>
-  </si>
-  <si>
-    <t>10 to 15</t>
-  </si>
-  <si>
-    <t>16 to 19</t>
-  </si>
-  <si>
-    <t>20 to 29</t>
-  </si>
-  <si>
-    <t>30 or more</t>
-  </si>
-  <si>
-    <t>Type of glass in windows</t>
-  </si>
-  <si>
-    <t>Single-pane glass</t>
-  </si>
-  <si>
-    <t>Double-pane glass</t>
-  </si>
-  <si>
-    <t>Triple-pane glass</t>
-  </si>
-  <si>
-    <t>Window frame material</t>
-  </si>
-  <si>
-    <t>Metal (aluminum)</t>
-  </si>
-  <si>
-    <t>Vinyl</t>
-  </si>
-  <si>
-    <t>Fiberglass</t>
-  </si>
-  <si>
-    <t>Composite</t>
-  </si>
-  <si>
-    <t>Number of sliding glass or French doors</t>
-  </si>
-  <si>
-    <t>Electricity meter is a smart meter</t>
-  </si>
-  <si>
-    <t>Don't know</t>
-  </si>
-  <si>
-    <t>Park a car within 20 feet of electrical outlet</t>
-  </si>
-  <si>
-    <t>Own or lease an all-electric or plug-in hybrid electric vehicle</t>
-  </si>
-  <si>
-    <t>Charge at home</t>
-  </si>
-  <si>
-    <t>Natural gas available in neighborhood</t>
-  </si>
-  <si>
-    <t>Uses natural gas</t>
-  </si>
-  <si>
-    <t>Does not use natural gas</t>
-  </si>
-  <si>
-    <t>Distributed solar generation</t>
-  </si>
-  <si>
-    <t>Not asked (apartments)</t>
-  </si>
-  <si>
-    <t>Experienced power outage lasting more than 24 hours</t>
-  </si>
-  <si>
-    <t>Natural disaster or weather      event</t>
-  </si>
-  <si>
-    <t>Unable to pay electric bill</t>
-  </si>
-  <si>
-    <t>Utility had planned or unplanned blackout</t>
-  </si>
-  <si>
-    <t>Back-up generator in home</t>
-  </si>
-  <si>
-    <t>Swimming pool</t>
-  </si>
-  <si>
-    <t>Months swimming pool is used</t>
-  </si>
-  <si>
-    <t>0 to 3</t>
-  </si>
-  <si>
-    <t>4 to 7</t>
-  </si>
-  <si>
-    <t>8 to 12</t>
-  </si>
-  <si>
-    <t>No swimming pool</t>
-  </si>
-  <si>
-    <t>Heated swimming pool and fuel</t>
-  </si>
-  <si>
-    <t>Heated swimming pool</t>
-  </si>
-  <si>
-    <t>Natural gas</t>
-  </si>
-  <si>
-    <t>Some other fuel</t>
-  </si>
-  <si>
-    <t>Unheated swimming pool</t>
-  </si>
-  <si>
-    <t>Hot tub</t>
-  </si>
-  <si>
-    <t>Months hot tub is used</t>
-  </si>
-  <si>
-    <t>No hot tub</t>
-  </si>
-  <si>
-    <t>Hot tub heating fuel</t>
-  </si>
-  <si>
-    <t>Hot tub used 0 months</t>
-  </si>
-  <si>
-    <t>Source: U.S. Energy Information Administration, Office of Energy Demand and Integrated Statistics, Form EIA-457A of the 2020 Residential Energy Consumption Survey
-Notes:  Because of rounding, data may not sum to totals.  See RECS Terminology for definition of terms used in these tables.
-a Total U.S. includes all primary occupied housing units in the 50 states and the District of Columbia. Vacant housing units, seasonal units, second homes, military houses, and group quarters are excluded.
-b Housing units are classified using criteria created by the U.S. Census Bureau based on 2010 Census data. Urbanized areas are densely settled groupings of blocks or tracts with 50,000 or more people, while urban clusters have at least 2,500 but less than 50,000 people. All other areas are rural.
-c The Building America program, sponsored by the U.S. Department of Energy’s Office of Energy Efficiency and Renewable Energy (EERE), created these climate regions. We combined climate regions for this publication. The Subarctic region is included with data for Very-cold and Cold.
-Q = Data withheld because either the relative standard error (RSE) was greater than 50% or fewer than 10 households in reporting sample.
-N = No households in reporting sample.</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>urban residential</t>
-  </si>
-  <si>
-    <t>rural residential</t>
-  </si>
-  <si>
-    <t>commercial</t>
-  </si>
-  <si>
-    <t>hard coal</t>
+    <r>
+      <t>Total U.S.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>Table HC2.1  Structural and geographic characteristics of U.S. homes, by housing unit type, 2020</t>
+  </si>
+  <si>
+    <t>Preliminary data release date: March 2022</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/consumption/residential/data/2020/?src=%E2%80%B9%20Consumption%20%20%20%20%20%20Residential%20Energy%20Consumption%20Survey%20(RECS)-f1</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/consumption/residential/data/2020/hc/xls/HC%202.1.xlsx</t>
+  </si>
+  <si>
+    <t>Table 21 and Table 22</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2021</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=30-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2018&amp;end=2050&amp;f=A&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>Thu Apr 13 2023 16:36:32 GMT-0400 (Eastern Daylight Time)</t>
+  </si>
+  <si>
+    <t>Growth (2020-2050)</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_EHP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_ELO_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_NHU_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_NGO_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_DFO_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_PROP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_KRS_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_WDS_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_GEHP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_MSHR_TOT_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_EHP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_NHU_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_GEHP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_CAC_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_RAC_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_SPC_TOT_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_ELE_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_NG_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_DFO_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_PROP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_SLR_THERM_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_WHT_TOT_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_ELE_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_NG_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_PROP_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CER_TOT_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CDR_ELE_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CDR_NG_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_CDR_TOT_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_OTAR_RFG_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EQNR_STK_RESD_OTAR_FRZ_NA_NA_MILL.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_EHP_NA_NA_HSPF.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_NHU_NA_NA_GCOP.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_GEHP_NA_NA_COP.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_NFR_NA_NA_AFUE.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPHR_DFR_NA_NA_AFUE.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_EHP_NA_NA_SEER.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_NHU_NA_NA_GCOP.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_GEHP_NA_NA_EER.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_CAC_NA_NA_SEER.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_SPC_RAC_NA_NA_EER.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_ELE_NA_NA_EF.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_NG_NA_NA_EF.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_DFO_NA_NA_EF.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_WHT_PROP_NA_NA_EF.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_OTAR_RFG_NA_NA_KWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_STK_RESD_OTAR_FRZ_NA_NA_KWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPH_OLD_NA_NA_Y15EQ1.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPH_NCO_NA_NA_Y15EQ1.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPH_AHM_NA_NA_Y15EQ1.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPC_OLD_NA_NA_Y15EQ1.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPC_NCO_NA_NA_Y15EQ1.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFI_BSE_RESD_SPC_AHM_NA_NA_Y15EQ1.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_FCL_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_RESD_CHP_SLR_PHTVL_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_RESD_CHP_WND_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_RESD_CHP_TOT_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_FCL_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_SLR_PHTVL_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_WND_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_TOT_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_STG_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_GFO_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_FCL_NA_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_SLR_PHTVL_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_WND_NA_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_TOT_NA_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>https://www.eia.gov/outlooks/aeo/data/browser/#/?id=32-AEO2021&amp;region=0-0&amp;cases=highogs&amp;start=2018&amp;end=2050&amp;f=A&amp;sourcekey=0</t>
+  </si>
+  <si>
+    <t>Thu Apr 13 2023 16:38:22 GMT-0400 (Eastern Daylight Time)</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_ASB_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_EDD_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_FDSA_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_FSC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_HLC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_LGC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_OFLC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_OFSC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_MCSC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_WHRC_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_OTHU_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_NA_DELE_NA_NA_QBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_ASB_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_EDD_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_FDSA_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_FSC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_HLC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_LGC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_OFLC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_OFSC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_MCSC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_WHRC_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_OTHU_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.KEI_FLR_COMM_NA_NA_NA_NA_BLNSQFT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPH_ELC_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPH_NG_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPH_DFO_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPC_ELC_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_SPC_NG_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_WTHT_ELC_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_WTHT_NG_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_WTHT_DFO_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_VNTC_ELC_NA_NA_CUFTPMINPBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_CGR_ELC_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_CGR_NG_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_LGHTNG_ELC_NA_NA_LMNPWATT.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.EFF_STKE_COMM_REFR_ELC_NA_NA_BTUOTPBTUIN.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_PET_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_NG_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_SLR_PHTVL_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_WND_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_OTH_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CAP_NA_COMM_CHP_TOT_NA_NA_MW.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_PET_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_NG_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.GEN_NA_COMM_CHP_OTH_NA_NA_MILLKWH.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_PET_NA_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_NG_NA_NA_TRLBTU.A</t>
+  </si>
+  <si>
+    <t>AEO.2021.HIGHOGS.CNSM_NA_COMM_CHP_OTH_NA_NA_TRLBTU.A</t>
   </si>
   <si>
     <t>natural gas steam turbine</t>
   </si>
   <si>
     <t>natural gas combined cycle</t>
-  </si>
-  <si>
-    <t>nuclear</t>
-  </si>
-  <si>
-    <t>hydro</t>
-  </si>
-  <si>
-    <t>onshore wind</t>
-  </si>
-  <si>
-    <t>solar PV</t>
-  </si>
-  <si>
-    <t>solar thermal</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>geothermal</t>
-  </si>
-  <si>
-    <t>petroleum</t>
-  </si>
-  <si>
-    <t>natural gas peaker</t>
-  </si>
-  <si>
-    <t>lignite</t>
-  </si>
-  <si>
-    <t>offshore wind</t>
-  </si>
-  <si>
-    <t>crude oil</t>
-  </si>
-  <si>
-    <t>heavy or residual fuel oil</t>
-  </si>
-  <si>
-    <t>municipal solid waste</t>
   </si>
   <si>
     <t>hard coal w CCS</t>
@@ -1741,7 +1877,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1808,7 +1944,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1857,7 +2025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1973,72 +2141,48 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2056,16 +2200,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="11" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="7" fillId="0" borderId="2" xfId="12" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2077,19 +2221,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="12" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="11" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="11" quotePrefix="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="11" quotePrefix="1" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1">
@@ -2107,48 +2251,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="14" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="15"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="15"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="14" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="10" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="10">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="11" xr:uid="{716C4B1B-8246-4F86-B207-AA505C13595A}"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="Header: top rows" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="10" xr:uid="{C2ED02E1-753F-4A0F-8FE2-481788A509A5}"/>
+    <cellStyle name="Header: bottom row" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="13" xr:uid="{F75A30F3-6D8D-40F3-86A8-B4BC9C0FBFE4}"/>
+    <cellStyle name="Header: top rows" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Parent row 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row 2" xfId="12" xr:uid="{8C867030-DF57-4EB8-AF9D-C18BC478B3D2}"/>
     <cellStyle name="Percent" xfId="8" builtinId="5"/>
-    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Table title 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Table title" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Table title 2" xfId="14" xr:uid="{49152C00-9ED6-45AE-B892-720EA6B7E8AB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -14697,23 +14842,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -14723,27 +14865,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>423</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>422</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -14753,52 +14895,52 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>2020</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -14807,7 +14949,7 @@
         <v>0.81308184246741677</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -14816,7 +14958,7 @@
         <v>0.18691815753258317</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -14824,16 +14966,16 @@
         <v>1000</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B15" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId1" xr:uid="{9F60FB51-4BC1-4113-905F-F7B24C4DE52E}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{6FD93205-12E4-4751-8D31-DBAA69817365}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14852,33 +14994,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -14977,31 +15119,31 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>427</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F8">
         <v>12.588214000000001</v>
@@ -15102,16 +15244,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>181</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F9">
         <v>30.217645999999998</v>
@@ -15212,16 +15354,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>429</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F10">
         <v>1.3117239999999999</v>
@@ -15322,16 +15464,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>430</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F11">
         <v>60.555110999999997</v>
@@ -15432,16 +15574,16 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>431</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F12">
         <v>5.548133</v>
@@ -15542,16 +15684,16 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>432</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>5.1948600000000003</v>
@@ -15652,16 +15794,16 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>433</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F14">
         <v>2.8969999999999998E-3</v>
@@ -15762,16 +15904,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>192</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>434</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F15">
         <v>3.344913</v>
@@ -15872,16 +16014,16 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>194</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>435</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F16">
         <v>0.65997300000000003</v>
@@ -15982,16 +16124,16 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>436</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F17">
         <v>119.42347700000001</v>
@@ -16092,21 +16234,21 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>437</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F19">
         <v>12.58821</v>
@@ -16207,16 +16349,16 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F20">
         <v>1.3117239999999999</v>
@@ -16317,16 +16459,16 @@
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F21">
         <v>0.65997300000000003</v>
@@ -16427,16 +16569,16 @@
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F22">
         <v>62.428100999999998</v>
@@ -16537,16 +16679,16 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>203</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>204</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>441</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F23">
         <v>57.979027000000002</v>
@@ -16647,16 +16789,16 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>442</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F24">
         <v>134.96704099999999</v>
@@ -16757,21 +16899,21 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F26">
         <v>59.144027999999999</v>
@@ -16872,16 +17014,16 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>444</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F27">
         <v>60.065722999999998</v>
@@ -16982,16 +17124,16 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>445</v>
       </c>
       <c r="D28" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F28">
         <v>2.6456879999999998</v>
@@ -17092,16 +17234,16 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>446</v>
       </c>
       <c r="D29" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F29">
         <v>4.0547959999999996</v>
@@ -17202,16 +17344,16 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>214</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>447</v>
       </c>
       <c r="D30" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F30">
         <v>1.6193390000000001</v>
@@ -17312,16 +17454,16 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>448</v>
       </c>
       <c r="D31" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F31">
         <v>127.529572</v>
@@ -17422,21 +17564,21 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>449</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F33">
         <v>96.368851000000006</v>
@@ -17537,16 +17679,16 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>450</v>
       </c>
       <c r="D34" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F34">
         <v>47.877865</v>
@@ -17647,16 +17789,16 @@
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>219</v>
       </c>
       <c r="C35" t="s">
-        <v>99</v>
+        <v>451</v>
       </c>
       <c r="D35" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F35">
         <v>7.1852200000000002</v>
@@ -17757,16 +17899,16 @@
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>452</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F36">
         <v>151.43194600000001</v>
@@ -17867,21 +18009,21 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>207</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>453</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F38">
         <v>82.851837000000003</v>
@@ -17982,16 +18124,16 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="C39" t="s">
-        <v>106</v>
+        <v>454</v>
       </c>
       <c r="D39" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F39">
         <v>19.328499000000001</v>
@@ -18092,16 +18234,16 @@
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="C40" t="s">
-        <v>108</v>
+        <v>455</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F40">
         <v>102.180336</v>
@@ -18202,21 +18344,21 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F42">
         <v>168.42892499999999</v>
@@ -18317,16 +18459,16 @@
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>457</v>
       </c>
       <c r="D43" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="F43">
         <v>44.426056000000003</v>
@@ -18427,26 +18569,26 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="B46" t="s">
-        <v>118</v>
+        <v>231</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="F46">
         <v>8.1115349999999999</v>
@@ -18547,16 +18689,16 @@
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="B47" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>459</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="F47">
         <v>1.3</v>
@@ -18657,16 +18799,16 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="C48" t="s">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="F48">
         <v>3.4048020000000001</v>
@@ -18767,16 +18909,16 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="C49" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="D49" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="F49">
         <v>0.82003599999999999</v>
@@ -18877,16 +19019,16 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>462</v>
       </c>
       <c r="D50" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="F50">
         <v>0.83380600000000005</v>
@@ -18987,21 +19129,21 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
-        <v>139</v>
+        <v>463</v>
       </c>
       <c r="D52" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F52">
         <v>13.797461999999999</v>
@@ -19102,16 +19244,16 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
       <c r="B53" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
-        <v>142</v>
+        <v>464</v>
       </c>
       <c r="D53" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="F53">
         <v>0.60571200000000003</v>
@@ -19212,16 +19354,16 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
+        <v>465</v>
       </c>
       <c r="D54" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="F54">
         <v>15.371568</v>
@@ -19322,16 +19464,16 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>466</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>247</v>
       </c>
       <c r="F55">
         <v>13.228505999999999</v>
@@ -19432,16 +19574,16 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>151</v>
+        <v>255</v>
       </c>
       <c r="C56" t="s">
-        <v>152</v>
+        <v>467</v>
       </c>
       <c r="D56" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="F56">
         <v>11.152912000000001</v>
@@ -19542,21 +19684,21 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>153</v>
+        <v>256</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>258</v>
       </c>
       <c r="C58" t="s">
-        <v>156</v>
+        <v>468</v>
       </c>
       <c r="D58" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F58">
         <v>0.90693800000000002</v>
@@ -19657,16 +19799,16 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="B59" t="s">
-        <v>159</v>
+        <v>261</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
+        <v>469</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F59">
         <v>0.60857099999999997</v>
@@ -19767,16 +19909,16 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>262</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>470</v>
       </c>
       <c r="D60" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F60">
         <v>0.582561</v>
@@ -19877,16 +20019,16 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>264</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="C61" t="s">
-        <v>166</v>
+        <v>471</v>
       </c>
       <c r="D61" t="s">
-        <v>157</v>
+        <v>259</v>
       </c>
       <c r="F61">
         <v>0.59947300000000003</v>
@@ -19987,21 +20129,21 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="B63" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>472</v>
       </c>
       <c r="D63" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="F63">
         <v>621.62353499999995</v>
@@ -20102,16 +20244,16 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>228</v>
       </c>
       <c r="B64" t="s">
-        <v>171</v>
+        <v>269</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>473</v>
       </c>
       <c r="D64" t="s">
-        <v>170</v>
+        <v>268</v>
       </c>
       <c r="F64">
         <v>458.33587599999998</v>
@@ -20212,26 +20354,26 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>474</v>
       </c>
       <c r="D67" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F67">
         <v>0.96857099999999996</v>
@@ -20332,16 +20474,16 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F68">
         <v>0.87612599999999996</v>
@@ -20442,16 +20584,16 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B69" t="s">
-        <v>183</v>
+        <v>278</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>476</v>
       </c>
       <c r="D69" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F69">
         <v>0.96265100000000003</v>
@@ -20552,21 +20694,21 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>175</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="C71" t="s">
-        <v>186</v>
+        <v>477</v>
       </c>
       <c r="D71" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F71">
         <v>0.98902999999999996</v>
@@ -20667,16 +20809,16 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F72">
         <v>0.99050899999999997</v>
@@ -20777,16 +20919,16 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="B73" t="s">
-        <v>189</v>
+        <v>281</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>479</v>
       </c>
       <c r="D73" t="s">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="F73">
         <v>0.98917699999999997</v>
@@ -20887,31 +21029,31 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="C77" t="s">
-        <v>196</v>
+        <v>480</v>
       </c>
       <c r="D77" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -21007,21 +21149,21 @@
         <v>1.433E-3</v>
       </c>
       <c r="AK77" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>200</v>
+        <v>289</v>
       </c>
       <c r="C78" t="s">
-        <v>201</v>
+        <v>481</v>
       </c>
       <c r="D78" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F78">
         <v>18.318204999999999</v>
@@ -21122,16 +21264,16 @@
     </row>
     <row r="79" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>204</v>
+        <v>482</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F79" s="8">
         <v>1.4232E-2</v>
@@ -21232,16 +21374,16 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B80" t="s">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>483</v>
       </c>
       <c r="D80" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F80">
         <v>18.332438</v>
@@ -21342,21 +21484,21 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
     </row>
     <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="B82" t="s">
-        <v>208</v>
+        <v>294</v>
       </c>
       <c r="C82" t="s">
-        <v>209</v>
+        <v>484</v>
       </c>
       <c r="D82" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -21452,21 +21594,21 @@
         <v>3.9979999999999998E-3</v>
       </c>
       <c r="AK82" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B83" t="s">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="C83" t="s">
-        <v>212</v>
+        <v>485</v>
       </c>
       <c r="D83" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F83">
         <v>27.109546999999999</v>
@@ -21567,16 +21709,16 @@
     </row>
     <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>214</v>
+        <v>486</v>
       </c>
       <c r="D84" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F84">
         <v>1.8546E-2</v>
@@ -21677,16 +21819,16 @@
     </row>
     <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="C85" t="s">
-        <v>216</v>
+        <v>487</v>
       </c>
       <c r="D85" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F85">
         <v>27.128091999999999</v>
@@ -21787,21 +21929,21 @@
     </row>
     <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="B87" t="s">
-        <v>219</v>
+        <v>301</v>
       </c>
       <c r="C87" t="s">
-        <v>220</v>
+        <v>488</v>
       </c>
       <c r="D87" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F87">
         <v>4.2282419999999998</v>
@@ -21902,16 +22044,16 @@
     </row>
     <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>303</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>489</v>
       </c>
       <c r="D88" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F88">
         <v>22.899849</v>
@@ -22012,21 +22154,21 @@
     </row>
     <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="B90" t="s">
-        <v>225</v>
+        <v>305</v>
       </c>
       <c r="C90" t="s">
-        <v>226</v>
+        <v>490</v>
       </c>
       <c r="D90" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -22122,21 +22264,21 @@
         <v>2.9988999999999998E-2</v>
       </c>
       <c r="AK90" t="s">
-        <v>198</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B91" t="s">
-        <v>228</v>
+        <v>307</v>
       </c>
       <c r="C91" t="s">
-        <v>229</v>
+        <v>491</v>
       </c>
       <c r="D91" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F91">
         <v>225.07347100000001</v>
@@ -22237,16 +22379,16 @@
     </row>
     <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>308</v>
       </c>
       <c r="C92" t="s">
-        <v>231</v>
+        <v>492</v>
       </c>
       <c r="D92" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F92">
         <v>0.172512</v>
@@ -22347,16 +22489,16 @@
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C93" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="D93" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F93">
         <v>225.24598700000001</v>
@@ -22476,33 +22618,33 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>2019</v>
@@ -22601,31 +22743,31 @@
         <v>2050</v>
       </c>
       <c r="AK5" t="s">
-        <v>28</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>313</v>
       </c>
       <c r="C8" t="s">
-        <v>241</v>
+        <v>496</v>
       </c>
       <c r="D8" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F8">
         <v>0.65425999999999995</v>
@@ -22726,16 +22868,16 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>497</v>
       </c>
       <c r="D9" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F9">
         <v>1.097099</v>
@@ -22836,16 +22978,16 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
-        <v>247</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>498</v>
       </c>
       <c r="D10" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F10">
         <v>0.33711200000000002</v>
@@ -22946,16 +23088,16 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>251</v>
+        <v>499</v>
       </c>
       <c r="D11" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F11">
         <v>0.60391499999999998</v>
@@ -23056,16 +23198,16 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="B12" t="s">
-        <v>253</v>
+        <v>322</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>500</v>
       </c>
       <c r="D12" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F12">
         <v>0.56415400000000004</v>
@@ -23166,16 +23308,16 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="C13" t="s">
-        <v>257</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F13">
         <v>0.65307199999999999</v>
@@ -23276,16 +23418,16 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="B14" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>502</v>
       </c>
       <c r="D14" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F14">
         <v>0.91181500000000004</v>
@@ -23386,16 +23528,16 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>328</v>
       </c>
       <c r="C15" t="s">
-        <v>263</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F15">
         <v>0.62496600000000002</v>
@@ -23496,16 +23638,16 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
-        <v>266</v>
+        <v>504</v>
       </c>
       <c r="D16" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F16">
         <v>1.4580070000000001</v>
@@ -23606,16 +23748,16 @@
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C17" t="s">
-        <v>269</v>
+        <v>505</v>
       </c>
       <c r="D17" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F17">
         <v>0.42540099999999997</v>
@@ -23716,16 +23858,16 @@
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B18" t="s">
-        <v>271</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>272</v>
+        <v>506</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F18">
         <v>0.47082200000000002</v>
@@ -23826,16 +23968,16 @@
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>273</v>
+        <v>335</v>
       </c>
       <c r="C19" t="s">
-        <v>274</v>
+        <v>507</v>
       </c>
       <c r="D19" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="F19">
         <v>7.8006229999999999</v>
@@ -23936,26 +24078,26 @@
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>275</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>276</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>312</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>337</v>
       </c>
       <c r="C22" t="s">
-        <v>278</v>
+        <v>508</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F22">
         <v>10.401047</v>
@@ -24056,16 +24198,16 @@
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="B23" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>509</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F23">
         <v>13.364542999999999</v>
@@ -24166,16 +24308,16 @@
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>246</v>
+        <v>317</v>
       </c>
       <c r="B24" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="C24" t="s">
-        <v>283</v>
+        <v>510</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F24">
         <v>1.312878</v>
@@ -24276,16 +24418,16 @@
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="B25" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="C25" t="s">
-        <v>285</v>
+        <v>511</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F25">
         <v>1.917279</v>
@@ -24386,16 +24528,16 @@
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>252</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="C26" t="s">
-        <v>287</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F26">
         <v>2.6232890000000002</v>
@@ -24496,16 +24638,16 @@
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>255</v>
+        <v>323</v>
       </c>
       <c r="B27" t="s">
-        <v>288</v>
+        <v>343</v>
       </c>
       <c r="C27" t="s">
-        <v>289</v>
+        <v>513</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F27">
         <v>6.4305729999999999</v>
@@ -24606,16 +24748,16 @@
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>258</v>
+        <v>325</v>
       </c>
       <c r="B28" t="s">
-        <v>290</v>
+        <v>344</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>514</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F28">
         <v>9.5479479999999999</v>
@@ -24716,16 +24858,16 @@
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>327</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>345</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>515</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F29">
         <v>9.0393329999999992</v>
@@ -24826,16 +24968,16 @@
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
       <c r="C30" t="s">
-        <v>295</v>
+        <v>516</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F30">
         <v>17.170576000000001</v>
@@ -24936,16 +25078,16 @@
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>267</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>296</v>
+        <v>347</v>
       </c>
       <c r="C31" t="s">
-        <v>297</v>
+        <v>517</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F31">
         <v>14.445923000000001</v>
@@ -25046,16 +25188,16 @@
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="C32" t="s">
-        <v>299</v>
+        <v>518</v>
       </c>
       <c r="D32" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F32">
         <v>7.3290100000000002</v>
@@ -25156,16 +25298,16 @@
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="C33" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="F33">
         <v>93.582397</v>
@@ -25266,26 +25408,26 @@
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>303</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>304</v>
+        <v>520</v>
       </c>
       <c r="D36" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F36">
         <v>1.620503</v>
@@ -25386,16 +25528,16 @@
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="C37" t="s">
-        <v>307</v>
+        <v>521</v>
       </c>
       <c r="D37" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F37">
         <v>0.788269</v>
@@ -25496,16 +25638,16 @@
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="B38" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="C38" t="s">
-        <v>309</v>
+        <v>522</v>
       </c>
       <c r="D38" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F38">
         <v>0.80938200000000005</v>
@@ -25606,21 +25748,21 @@
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>136</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C40" t="s">
-        <v>311</v>
+        <v>523</v>
       </c>
       <c r="D40" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F40">
         <v>3.5652750000000002</v>
@@ -25721,16 +25863,16 @@
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B41" t="s">
-        <v>312</v>
+        <v>355</v>
       </c>
       <c r="C41" t="s">
-        <v>313</v>
+        <v>524</v>
       </c>
       <c r="D41" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F41">
         <v>0.76141800000000004</v>
@@ -25831,21 +25973,21 @@
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B43" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="C43" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D43" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F43">
         <v>1.128255</v>
@@ -25946,16 +26088,16 @@
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B44" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C44" t="s">
-        <v>318</v>
+        <v>526</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F44">
         <v>0.88786500000000002</v>
@@ -26056,16 +26198,16 @@
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="C45" t="s">
-        <v>320</v>
+        <v>527</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F45">
         <v>0.80547100000000005</v>
@@ -26166,21 +26308,21 @@
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B47" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
-        <v>323</v>
+        <v>528</v>
       </c>
       <c r="D47" t="s">
-        <v>324</v>
+        <v>362</v>
       </c>
       <c r="F47">
         <v>0.55371400000000004</v>
@@ -26281,21 +26423,21 @@
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>325</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B49" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="C49" t="s">
-        <v>327</v>
+        <v>529</v>
       </c>
       <c r="D49" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F49">
         <v>0.69221600000000005</v>
@@ -26396,16 +26538,16 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="C50" t="s">
-        <v>329</v>
+        <v>530</v>
       </c>
       <c r="D50" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F50">
         <v>0.31666699999999998</v>
@@ -26506,26 +26648,26 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="C53" t="s">
-        <v>333</v>
+        <v>531</v>
       </c>
       <c r="D53" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="F53">
         <v>70.972008000000002</v>
@@ -26626,21 +26768,21 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="C55" t="s">
-        <v>337</v>
+        <v>532</v>
       </c>
       <c r="D55" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="F55">
         <v>2.6778140000000001</v>
@@ -26741,31 +26883,31 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>192</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="B59" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>533</v>
       </c>
       <c r="D59" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F59">
         <v>1.7117E-2</v>
@@ -26866,16 +27008,16 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="C60" t="s">
-        <v>342</v>
+        <v>534</v>
       </c>
       <c r="D60" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F60">
         <v>1.3771519999999999</v>
@@ -26976,16 +27118,16 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B61" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="C61" t="s">
-        <v>344</v>
+        <v>535</v>
       </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F61">
         <v>15.855377000000001</v>
@@ -27086,16 +27228,16 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C62" t="s">
-        <v>346</v>
+        <v>536</v>
       </c>
       <c r="D62" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F62">
         <v>0.55488099999999996</v>
@@ -27196,16 +27338,16 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="C63" t="s">
-        <v>348</v>
+        <v>537</v>
       </c>
       <c r="D63" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F63">
         <v>0.52205299999999999</v>
@@ -27306,16 +27448,16 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="C64" t="s">
-        <v>350</v>
+        <v>538</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>287</v>
       </c>
       <c r="F64">
         <v>18.32658</v>
@@ -27416,21 +27558,21 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>207</v>
+        <v>293</v>
       </c>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="C66" t="s">
-        <v>352</v>
+        <v>539</v>
       </c>
       <c r="D66" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F66">
         <v>0.11938799999999999</v>
@@ -27531,16 +27673,16 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
-        <v>353</v>
+        <v>380</v>
       </c>
       <c r="C67" t="s">
-        <v>354</v>
+        <v>540</v>
       </c>
       <c r="D67" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F67">
         <v>9.6056340000000002</v>
@@ -27641,16 +27783,16 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B68" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C68" t="s">
-        <v>212</v>
+        <v>485</v>
       </c>
       <c r="D68" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F68">
         <v>20.024660000000001</v>
@@ -27751,16 +27893,16 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="B69" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>486</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F69">
         <v>0.75530799999999998</v>
@@ -27861,16 +28003,16 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B70" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="C70" t="s">
-        <v>358</v>
+        <v>541</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F70">
         <v>3.7357119999999999</v>
@@ -27971,16 +28113,16 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B71" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C71" t="s">
-        <v>216</v>
+        <v>487</v>
       </c>
       <c r="D71" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F71">
         <v>34.240704000000001</v>
@@ -28081,21 +28223,21 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F73">
         <v>8.2284749999999995</v>
@@ -28196,16 +28338,16 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>302</v>
       </c>
       <c r="B74" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>489</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="F74">
         <v>26.012225999999998</v>
@@ -28306,21 +28448,21 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
       <c r="B76" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>542</v>
       </c>
       <c r="D76" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F76">
         <v>1.23607</v>
@@ -28421,16 +28563,16 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>81</v>
+        <v>209</v>
       </c>
       <c r="B77" t="s">
-        <v>364</v>
+        <v>388</v>
       </c>
       <c r="C77" t="s">
-        <v>365</v>
+        <v>543</v>
       </c>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F77">
         <v>105.194168</v>
@@ -28531,16 +28673,16 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>199</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="C78" t="s">
-        <v>229</v>
+        <v>491</v>
       </c>
       <c r="D78" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F78">
         <v>165.691711</v>
@@ -28641,16 +28783,16 @@
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="B79" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="C79" t="s">
-        <v>231</v>
+        <v>492</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F79">
         <v>6.897945</v>
@@ -28751,16 +28893,16 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B80" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>544</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F80">
         <v>85.124961999999996</v>
@@ -28861,16 +29003,16 @@
     </row>
     <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C81" t="s">
-        <v>233</v>
+        <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>227</v>
+        <v>306</v>
       </c>
       <c r="F81">
         <v>364.14486699999998</v>
@@ -28976,7 +29118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92081172-AA08-4796-852E-A877505A3310}">
   <dimension ref="A1:G222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29117,67 +29259,67 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B1" s="31"/>
+        <v>419</v>
+      </c>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="27"/>
       <c r="B3" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="26"/>
       <c r="C4" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+        <v>62</v>
+      </c>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25"/>
       <c r="B5" s="24" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>376</v>
+        <v>63</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>377</v>
+        <v>64</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>378</v>
+        <v>416</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>380</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>381</v>
+        <v>66</v>
       </c>
       <c r="B6" s="22">
         <v>123.53</v>
@@ -29200,18 +29342,30 @@
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>382</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+        <v>67</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>383</v>
+        <v>16</v>
       </c>
       <c r="B8" s="11">
         <v>21.92</v>
@@ -29234,7 +29388,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11">
         <v>5.88</v>
@@ -29257,7 +29411,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>385</v>
+        <v>18</v>
       </c>
       <c r="B10" s="11">
         <v>16.04</v>
@@ -29280,7 +29434,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>386</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11">
         <v>27.04</v>
@@ -29303,7 +29457,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>387</v>
+        <v>20</v>
       </c>
       <c r="B12" s="11">
         <v>18.55</v>
@@ -29326,7 +29480,7 @@
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>388</v>
+        <v>21</v>
       </c>
       <c r="B13" s="11">
         <v>8.5</v>
@@ -29349,7 +29503,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>389</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11">
         <v>46.84</v>
@@ -29372,7 +29526,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>390</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11">
         <v>24.84</v>
@@ -29395,7 +29549,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>391</v>
+        <v>24</v>
       </c>
       <c r="B16" s="11">
         <v>7.38</v>
@@ -29418,7 +29572,7 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>392</v>
+        <v>25</v>
       </c>
       <c r="B17" s="11">
         <v>14.62</v>
@@ -29441,7 +29595,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>393</v>
+        <v>26</v>
       </c>
       <c r="B18" s="11">
         <v>27.72</v>
@@ -29464,7 +29618,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>394</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11">
         <v>9.2200000000000006</v>
@@ -29487,7 +29641,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="B20" s="11">
         <v>4.62</v>
@@ -29510,7 +29664,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="B21" s="11">
         <v>4.5999999999999996</v>
@@ -29533,7 +29687,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>397</v>
+        <v>30</v>
       </c>
       <c r="B22" s="11">
         <v>18.510000000000002</v>
@@ -29556,18 +29710,30 @@
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>398</v>
-      </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+        <v>414</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B24" s="11">
         <v>100.44</v>
@@ -29590,7 +29756,7 @@
     </row>
     <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="B25" s="11">
         <v>89.24</v>
@@ -29613,7 +29779,7 @@
     </row>
     <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>400</v>
+        <v>69</v>
       </c>
       <c r="B26" s="11">
         <v>11.2</v>
@@ -29636,7 +29802,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B27" s="11">
         <v>23.09</v>
@@ -29659,18 +29825,30 @@
     </row>
     <row r="28" spans="1:7" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>401</v>
-      </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+        <v>413</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>402</v>
+        <v>70</v>
       </c>
       <c r="B29" s="11">
         <v>42.5</v>
@@ -29693,7 +29871,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>403</v>
+        <v>71</v>
       </c>
       <c r="B30" s="11">
         <v>36.79</v>
@@ -29716,7 +29894,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>404</v>
+        <v>72</v>
       </c>
       <c r="B31" s="11">
         <v>15.06</v>
@@ -29739,7 +29917,7 @@
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="B32" s="11">
         <v>22.31</v>
@@ -29762,7 +29940,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>406</v>
+        <v>33</v>
       </c>
       <c r="B33" s="11">
         <v>6.87</v>
@@ -29785,18 +29963,30 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>408</v>
+        <v>75</v>
       </c>
       <c r="B35" s="11">
         <v>20.260000000000002</v>
@@ -29819,7 +30009,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>409</v>
+        <v>35</v>
       </c>
       <c r="B36" s="11">
         <v>12.48</v>
@@ -29842,7 +30032,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>410</v>
+        <v>36</v>
       </c>
       <c r="B37" s="11">
         <v>12.76</v>
@@ -29865,7 +30055,7 @@
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>411</v>
+        <v>37</v>
       </c>
       <c r="B38" s="11">
         <v>18.34</v>
@@ -29888,7 +30078,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>412</v>
+        <v>38</v>
       </c>
       <c r="B39" s="11">
         <v>16.3</v>
@@ -29911,7 +30101,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>413</v>
+        <v>39</v>
       </c>
       <c r="B40" s="11">
         <v>17.16</v>
@@ -29934,7 +30124,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>414</v>
+        <v>40</v>
       </c>
       <c r="B41" s="11">
         <v>16.16</v>
@@ -29957,7 +30147,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>415</v>
+        <v>76</v>
       </c>
       <c r="B42" s="11">
         <v>5.53</v>
@@ -29980,7 +30170,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B43" s="11">
         <v>4.5599999999999996</v>
@@ -30003,18 +30193,30 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+        <v>77</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B45" s="11">
         <v>47.15</v>
@@ -30026,18 +30228,18 @@
         <v>2.57</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="B46" s="11">
         <v>32.47</v>
@@ -30049,18 +30251,18 @@
         <v>3.94</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="B47" s="11">
         <v>2.61</v>
@@ -30072,18 +30274,18 @@
         <v>0.85</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B48" s="11">
         <v>2.2799999999999998</v>
@@ -30095,27 +30297,27 @@
         <v>0.09</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="B49" s="11">
         <v>39.01</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E49" s="11">
         <v>9.34</v>
@@ -30129,18 +30331,30 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="B51" s="11">
         <v>45.44</v>
@@ -30163,7 +30377,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>426</v>
+        <v>42</v>
       </c>
       <c r="B52" s="11">
         <v>33.369999999999997</v>
@@ -30186,7 +30400,7 @@
     </row>
     <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>427</v>
+        <v>43</v>
       </c>
       <c r="B53" s="11">
         <v>18.8</v>
@@ -30209,7 +30423,7 @@
     </row>
     <row r="54" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>428</v>
+        <v>44</v>
       </c>
       <c r="B54" s="11">
         <v>15.65</v>
@@ -30232,7 +30446,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="B55" s="11">
         <v>6.42</v>
@@ -30250,12 +30464,12 @@
         <v>2.56</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="B56" s="11">
         <v>1.89</v>
@@ -30278,7 +30492,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="B57" s="11">
         <v>1.46</v>
@@ -30296,12 +30510,12 @@
         <v>0.31</v>
       </c>
       <c r="G57" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="B58" s="11">
         <v>0.5</v>
@@ -30310,32 +30524,44 @@
         <v>0.26</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F58" s="11">
         <v>0.14000000000000001</v>
       </c>
       <c r="G58" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>435</v>
+        <v>82</v>
       </c>
       <c r="B60" s="11">
         <v>76.03</v>
@@ -30350,7 +30576,7 @@
         <v>5.89</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G60" s="11">
         <v>3.09</v>
@@ -30358,7 +30584,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>436</v>
+        <v>46</v>
       </c>
       <c r="B61" s="11">
         <v>9.69</v>
@@ -30373,7 +30599,7 @@
         <v>0.46</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G61" s="11">
         <v>3.08</v>
@@ -30381,7 +30607,7 @@
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="B62" s="11">
         <v>5.19</v>
@@ -30396,7 +30622,7 @@
         <v>1.23</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G62" s="11">
         <v>0.35</v>
@@ -30404,7 +30630,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>438</v>
+        <v>84</v>
       </c>
       <c r="B63" s="11">
         <v>4.8899999999999997</v>
@@ -30419,15 +30645,15 @@
         <v>0.66</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>439</v>
+        <v>85</v>
       </c>
       <c r="B64" s="11">
         <v>2.14</v>
@@ -30442,15 +30668,15 @@
         <v>0.43</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>440</v>
+        <v>86</v>
       </c>
       <c r="B65" s="11">
         <v>1.49</v>
@@ -30465,7 +30691,7 @@
         <v>0.51</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G65" s="11">
         <v>0.08</v>
@@ -30473,7 +30699,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>433</v>
+        <v>80</v>
       </c>
       <c r="B66" s="11">
         <v>1.26</v>
@@ -30488,49 +30714,61 @@
         <v>0.15</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G66" s="11">
         <v>0.18</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>441</v>
+        <v>87</v>
       </c>
       <c r="B67" s="11">
         <v>22.84</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F67" s="11">
         <v>22.84</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
+        <v>88</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>443</v>
+        <v>48</v>
       </c>
       <c r="B69" s="11">
         <v>4.59</v>
@@ -30691,7 +30929,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>444</v>
+        <v>89</v>
       </c>
       <c r="B76" s="11">
         <v>19.899999999999999</v>
@@ -30714,14 +30952,26 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
@@ -30734,7 +30984,7 @@
         <v>0.1</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E78" s="11">
         <v>0.32</v>
@@ -30743,7 +30993,7 @@
         <v>1.36</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -30840,7 +31090,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>446</v>
+        <v>91</v>
       </c>
       <c r="B83" s="11">
         <v>6.16</v>
@@ -30855,22 +31105,34 @@
         <v>0.13</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G83" s="11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+        <v>92</v>
+      </c>
+      <c r="B84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
@@ -30966,7 +31228,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>446</v>
+        <v>91</v>
       </c>
       <c r="B89" s="11">
         <v>27.64</v>
@@ -30989,14 +31251,26 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
+        <v>93</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
@@ -31009,16 +31283,16 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E91" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -31069,7 +31343,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>449</v>
+        <v>94</v>
       </c>
       <c r="B94" s="11">
         <v>16.21</v>
@@ -31092,14 +31366,26 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
+        <v>95</v>
+      </c>
+      <c r="B95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
@@ -31149,7 +31435,7 @@
     </row>
     <row r="98" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="19" t="s">
-        <v>451</v>
+        <v>96</v>
       </c>
       <c r="B98" s="11">
         <v>2.91</v>
@@ -31172,18 +31458,30 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>452</v>
-      </c>
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="B99" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B100" s="11">
         <v>36.83</v>
@@ -31195,18 +31493,18 @@
         <v>2.98</v>
       </c>
       <c r="E100" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G100" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
-        <v>454</v>
+        <v>97</v>
       </c>
       <c r="B101" s="11">
         <v>21.71</v>
@@ -31218,18 +31516,18 @@
         <v>1.87</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G101" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
-        <v>455</v>
+        <v>98</v>
       </c>
       <c r="B102" s="11">
         <v>15.12</v>
@@ -31241,18 +31539,18 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F102" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G102" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B103" s="11">
         <v>47.68</v>
@@ -31264,27 +31562,27 @@
         <v>4.47</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G103" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="B104" s="11">
         <v>39.01</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E104" s="11">
         <v>9.34</v>
@@ -31298,18 +31596,30 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="s">
-        <v>457</v>
-      </c>
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B106" s="11">
         <v>56.5</v>
@@ -31321,18 +31631,18 @@
         <v>3.52</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
-        <v>458</v>
+        <v>100</v>
       </c>
       <c r="B107" s="11">
         <v>7.68</v>
@@ -31344,18 +31654,18 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G107" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
-        <v>459</v>
+        <v>101</v>
       </c>
       <c r="B108" s="11">
         <v>48.83</v>
@@ -31367,18 +31677,18 @@
         <v>2.94</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G108" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B109" s="11">
         <v>28.01</v>
@@ -31390,27 +31700,27 @@
         <v>3.94</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G109" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="19" t="s">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="B110" s="11">
         <v>39.01</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E110" s="11">
         <v>9.34</v>
@@ -31424,18 +31734,30 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="s">
-        <v>460</v>
-      </c>
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
+        <v>102</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B112" s="11">
         <v>51.79</v>
@@ -31447,18 +31769,18 @@
         <v>3.6</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F112" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
-        <v>461</v>
+        <v>103</v>
       </c>
       <c r="B113" s="11">
         <v>11.27</v>
@@ -31470,18 +31792,18 @@
         <v>1.64</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G113" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
-        <v>462</v>
+        <v>104</v>
       </c>
       <c r="B114" s="11">
         <v>34.18</v>
@@ -31493,18 +31815,18 @@
         <v>1.91</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>463</v>
+        <v>105</v>
       </c>
       <c r="B115" s="11">
         <v>6.34</v>
@@ -31516,18 +31838,18 @@
         <v>0.06</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G115" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B116" s="11">
         <v>32.72</v>
@@ -31539,27 +31861,27 @@
         <v>3.85</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="19" t="s">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="B117" s="11">
         <v>39.01</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E117" s="11">
         <v>9.34</v>
@@ -31573,18 +31895,30 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
+        <v>106</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G118" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="B119" s="11">
         <v>34.340000000000003</v>
@@ -31607,7 +31941,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
-        <v>466</v>
+        <v>108</v>
       </c>
       <c r="B120" s="11">
         <v>64.27</v>
@@ -31630,7 +31964,7 @@
     </row>
     <row r="121" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="14" t="s">
-        <v>467</v>
+        <v>109</v>
       </c>
       <c r="B121" s="11">
         <v>21.29</v>
@@ -31653,7 +31987,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="B122" s="11">
         <v>3.63</v>
@@ -31676,18 +32010,30 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
-        <v>470</v>
+        <v>51</v>
       </c>
       <c r="B124" s="11">
         <v>55.37</v>
@@ -31710,7 +32056,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="14" t="s">
-        <v>471</v>
+        <v>111</v>
       </c>
       <c r="B125" s="11">
         <v>52.63</v>
@@ -31733,7 +32079,7 @@
     </row>
     <row r="126" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
-        <v>472</v>
+        <v>112</v>
       </c>
       <c r="B126" s="11">
         <v>10.39</v>
@@ -31756,7 +32102,7 @@
     </row>
     <row r="127" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
-        <v>473</v>
+        <v>113</v>
       </c>
       <c r="B127" s="11">
         <v>5.14</v>
@@ -31779,18 +32125,30 @@
     </row>
     <row r="128" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
+        <v>403</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G128" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B129" s="11">
         <v>55.18</v>
@@ -31808,12 +32166,12 @@
         <v>8.75</v>
       </c>
       <c r="G129" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B130" s="11">
         <v>61.52</v>
@@ -31831,27 +32189,27 @@
         <v>14.08</v>
       </c>
       <c r="G130" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="19" t="s">
-        <v>475</v>
+        <v>114</v>
       </c>
       <c r="B131" s="11">
         <v>6.83</v>
       </c>
       <c r="C131" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E131" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G131" s="11">
         <v>6.83</v>
@@ -31859,18 +32217,30 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="17" t="s">
-        <v>476</v>
-      </c>
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
+        <v>115</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G132" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="14" t="s">
-        <v>477</v>
+        <v>116</v>
       </c>
       <c r="B133" s="11">
         <v>6.95</v>
@@ -31888,12 +32258,12 @@
         <v>5.85</v>
       </c>
       <c r="G133" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
-        <v>478</v>
+        <v>117</v>
       </c>
       <c r="B134" s="11">
         <v>18.149999999999999</v>
@@ -31916,7 +32286,7 @@
     </row>
     <row r="135" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="B135" s="11">
         <v>29.35</v>
@@ -31939,7 +32309,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>480</v>
+        <v>119</v>
       </c>
       <c r="B136" s="11">
         <v>38.42</v>
@@ -31962,7 +32332,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>481</v>
+        <v>120</v>
       </c>
       <c r="B137" s="11">
         <v>13.61</v>
@@ -31985,7 +32355,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>482</v>
+        <v>121</v>
       </c>
       <c r="B138" s="11">
         <v>12.43</v>
@@ -32000,7 +32370,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="F138" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G138" s="11">
         <v>0.13</v>
@@ -32008,7 +32378,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>483</v>
+        <v>122</v>
       </c>
       <c r="B139" s="11">
         <v>4.62</v>
@@ -32023,26 +32393,38 @@
         <v>0.09</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G139" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="17" t="s">
-        <v>484</v>
-      </c>
-      <c r="B140" s="15"/>
-      <c r="C140" s="15"/>
-      <c r="D140" s="15"/>
-      <c r="E140" s="15"/>
-      <c r="F140" s="15"/>
-      <c r="G140" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="14" t="s">
-        <v>485</v>
+        <v>124</v>
       </c>
       <c r="B141" s="11">
         <v>43.51</v>
@@ -32065,7 +32447,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
-        <v>486</v>
+        <v>125</v>
       </c>
       <c r="B142" s="11">
         <v>77.95</v>
@@ -32088,7 +32470,7 @@
     </row>
     <row r="143" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
-        <v>487</v>
+        <v>126</v>
       </c>
       <c r="B143" s="11">
         <v>2.0699999999999998</v>
@@ -32106,23 +32488,35 @@
         <v>0.27</v>
       </c>
       <c r="G143" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="B144" s="15"/>
-      <c r="C144" s="15"/>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="15"/>
+        <v>127</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
-        <v>489</v>
+        <v>128</v>
       </c>
       <c r="B145" s="11">
         <v>47.4</v>
@@ -32145,7 +32539,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
-        <v>427</v>
+        <v>43</v>
       </c>
       <c r="B146" s="11">
         <v>40.31</v>
@@ -32168,7 +32562,7 @@
     </row>
     <row r="147" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
-        <v>490</v>
+        <v>129</v>
       </c>
       <c r="B147" s="11">
         <v>31.85</v>
@@ -32191,7 +32585,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>491</v>
+        <v>130</v>
       </c>
       <c r="B148" s="11">
         <v>1.72</v>
@@ -32214,7 +32608,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>492</v>
+        <v>131</v>
       </c>
       <c r="B149" s="11">
         <v>2.25</v>
@@ -32232,19 +32626,31 @@
         <v>0.3</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="17" t="s">
-        <v>493</v>
-      </c>
-      <c r="B150" s="15"/>
-      <c r="C150" s="15"/>
-      <c r="D150" s="15"/>
-      <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
+        <v>402</v>
+      </c>
+      <c r="B150" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C150" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E150" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
@@ -32317,7 +32723,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="19" t="s">
-        <v>449</v>
+        <v>94</v>
       </c>
       <c r="B154" s="11">
         <v>8.16</v>
@@ -32340,18 +32746,30 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="s">
-        <v>494</v>
-      </c>
-      <c r="B155" s="15"/>
-      <c r="C155" s="15"/>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C155" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G155" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B156" s="11">
         <v>34.299999999999997</v>
@@ -32374,7 +32792,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B157" s="11">
         <v>36.81</v>
@@ -32397,7 +32815,7 @@
     </row>
     <row r="158" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
-        <v>495</v>
+        <v>132</v>
       </c>
       <c r="B158" s="11">
         <v>52.42</v>
@@ -32418,20 +32836,32 @@
         <v>2.66</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="B159" s="15"/>
-      <c r="C159" s="15"/>
-      <c r="D159" s="15"/>
-      <c r="E159" s="15"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+        <v>134</v>
+      </c>
+      <c r="B159" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G159" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B160" s="11">
         <v>67.83</v>
@@ -32446,7 +32876,7 @@
         <v>2.11</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G160" s="11">
         <v>3.41</v>
@@ -32454,7 +32884,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B161" s="11">
         <v>32.869999999999997</v>
@@ -32469,7 +32899,7 @@
         <v>7.23</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G161" s="11">
         <v>3.42</v>
@@ -32477,41 +32907,53 @@
     </row>
     <row r="162" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
-        <v>441</v>
+        <v>87</v>
       </c>
       <c r="B162" s="11">
         <v>22.84</v>
       </c>
       <c r="C162" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E162" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F162" s="11">
         <v>22.84</v>
       </c>
       <c r="G162" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="s">
-        <v>497</v>
-      </c>
-      <c r="B163" s="20"/>
-      <c r="C163" s="20"/>
-      <c r="D163" s="20"/>
-      <c r="E163" s="20"/>
-      <c r="F163" s="20"/>
-      <c r="G163" s="20"/>
+        <v>401</v>
+      </c>
+      <c r="B163" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C163" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E163" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" s="20" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B164" s="20">
         <v>1.82</v>
@@ -32523,18 +32965,18 @@
         <v>0.11</v>
       </c>
       <c r="E164" s="20" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F164" s="20">
         <v>0.17</v>
       </c>
       <c r="G164" s="20" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="12" t="s">
-        <v>498</v>
+        <v>400</v>
       </c>
       <c r="B165" s="20">
         <v>1.39</v>
@@ -32546,18 +32988,18 @@
         <v>0.09</v>
       </c>
       <c r="E165" s="20" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F165" s="20" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G165" s="20" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B166" s="20">
         <v>121.71</v>
@@ -32580,18 +33022,30 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="s">
-        <v>499</v>
-      </c>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
-      <c r="G167" s="17"/>
+        <v>135</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C167" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E167" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G167" s="17" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B168" s="11">
         <v>84.52</v>
@@ -32614,7 +33068,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="12" t="s">
-        <v>500</v>
+        <v>399</v>
       </c>
       <c r="B169" s="11">
         <v>69.489999999999995</v>
@@ -32637,7 +33091,7 @@
     </row>
     <row r="170" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="12" t="s">
-        <v>501</v>
+        <v>398</v>
       </c>
       <c r="B170" s="11">
         <v>15.03</v>
@@ -32660,7 +33114,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B171" s="11">
         <v>39.01</v>
@@ -32683,18 +33137,30 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="17" t="s">
-        <v>502</v>
-      </c>
-      <c r="B172" s="15"/>
-      <c r="C172" s="15"/>
-      <c r="D172" s="15"/>
-      <c r="E172" s="15"/>
-      <c r="F172" s="15"/>
-      <c r="G172" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="B172" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C172" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E172" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G172" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B173" s="11">
         <v>3.37</v>
@@ -32706,10 +33172,10 @@
         <v>0.11</v>
       </c>
       <c r="E173" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F173" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G173" s="11">
         <v>0.1</v>
@@ -32717,7 +33183,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B174" s="11">
         <v>87.98</v>
@@ -32729,10 +33195,10 @@
         <v>7.34</v>
       </c>
       <c r="E174" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F174" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G174" s="11">
         <v>6.73</v>
@@ -32740,16 +33206,16 @@
     </row>
     <row r="175" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="B175" s="11">
         <v>32.18</v>
       </c>
       <c r="C175" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D175" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E175" s="11">
         <v>9.34</v>
@@ -32758,23 +33224,35 @@
         <v>22.84</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A176" s="17" t="s">
-        <v>504</v>
-      </c>
-      <c r="B176" s="15"/>
-      <c r="C176" s="15"/>
-      <c r="D176" s="15"/>
-      <c r="E176" s="15"/>
-      <c r="F176" s="15"/>
-      <c r="G176" s="15"/>
+        <v>397</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G176" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B177" s="11">
         <v>22.72</v>
@@ -32797,7 +33275,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="12" t="s">
-        <v>505</v>
+        <v>396</v>
       </c>
       <c r="B178" s="11">
         <v>19</v>
@@ -32820,7 +33298,7 @@
     </row>
     <row r="179" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
-        <v>506</v>
+        <v>395</v>
       </c>
       <c r="B179" s="11">
         <v>0.25</v>
@@ -32829,21 +33307,21 @@
         <v>0.15</v>
       </c>
       <c r="D179" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E179" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F179" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G179" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A180" s="12" t="s">
-        <v>507</v>
+        <v>394</v>
       </c>
       <c r="B180" s="11">
         <v>3.08</v>
@@ -32866,7 +33344,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="12" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="B181" s="11">
         <v>0.39</v>
@@ -32875,21 +33353,21 @@
         <v>0.16</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E181" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F181" s="11">
         <v>0.18</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B182" s="11">
         <v>100.81</v>
@@ -32912,18 +33390,30 @@
     </row>
     <row r="183" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="s">
-        <v>508</v>
-      </c>
-      <c r="B183" s="15"/>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E183" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G183" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B184" s="11">
         <v>17.66</v>
@@ -32946,7 +33436,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B185" s="11">
         <v>105.87</v>
@@ -32969,18 +33459,30 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="17" t="s">
-        <v>509</v>
-      </c>
-      <c r="B186" s="15"/>
-      <c r="C186" s="15"/>
-      <c r="D186" s="15"/>
-      <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
+        <v>139</v>
+      </c>
+      <c r="B186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G186" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="187" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="19" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B187" s="11">
         <v>8.52</v>
@@ -32992,10 +33494,10 @@
         <v>0.2</v>
       </c>
       <c r="E187" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F187" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G187" s="11">
         <v>0.23</v>
@@ -33003,7 +33505,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B188" s="11">
         <v>82.83</v>
@@ -33015,10 +33517,10 @@
         <v>7.25</v>
       </c>
       <c r="E188" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F188" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G188" s="11">
         <v>6.6</v>
@@ -33026,16 +33528,16 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="B189" s="11">
         <v>32.18</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E189" s="11">
         <v>9.34</v>
@@ -33044,23 +33546,35 @@
         <v>22.84</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="B190" s="15"/>
-      <c r="C190" s="15"/>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="15"/>
+        <v>140</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G190" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="12" t="s">
-        <v>511</v>
+        <v>141</v>
       </c>
       <c r="B191" s="11">
         <v>1.9</v>
@@ -33072,18 +33586,18 @@
         <v>0.06</v>
       </c>
       <c r="E191" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F191" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="12" t="s">
-        <v>512</v>
+        <v>142</v>
       </c>
       <c r="B192" s="11">
         <v>5.08</v>
@@ -33095,10 +33609,10 @@
         <v>0.1</v>
       </c>
       <c r="E192" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F192" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G192" s="11">
         <v>0.14000000000000001</v>
@@ -33106,7 +33620,7 @@
     </row>
     <row r="193" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="12" t="s">
-        <v>513</v>
+        <v>143</v>
       </c>
       <c r="B193" s="11">
         <v>1.54</v>
@@ -33115,21 +33629,21 @@
         <v>1.48</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E193" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F193" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="12" t="s">
-        <v>514</v>
+        <v>144</v>
       </c>
       <c r="B194" s="11">
         <v>82.83</v>
@@ -33141,10 +33655,10 @@
         <v>7.25</v>
       </c>
       <c r="E194" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F194" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G194" s="11">
         <v>6.6</v>
@@ -33152,16 +33666,16 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="12" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="B195" s="11">
         <v>32.18</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D195" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E195" s="11">
         <v>9.34</v>
@@ -33170,23 +33684,35 @@
         <v>22.84</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="B196" s="15"/>
-      <c r="C196" s="15"/>
-      <c r="D196" s="15"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
+        <v>145</v>
+      </c>
+      <c r="B196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G196" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="12" t="s">
-        <v>516</v>
+        <v>146</v>
       </c>
       <c r="B197" s="11">
         <v>2.89</v>
@@ -33198,18 +33724,18 @@
         <v>0.05</v>
       </c>
       <c r="E197" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B198" s="11">
         <v>0.85</v>
@@ -33218,21 +33744,21 @@
         <v>0.82</v>
       </c>
       <c r="D198" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E198" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F198" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>517</v>
+        <v>148</v>
       </c>
       <c r="B199" s="11">
         <v>1.32</v>
@@ -33241,21 +33767,21 @@
         <v>1.3</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E199" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F199" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="B200" s="11">
         <v>0.28999999999999998</v>
@@ -33264,21 +33790,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="D200" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E200" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>518</v>
+        <v>150</v>
       </c>
       <c r="B201" s="11">
         <v>0.42</v>
@@ -33287,21 +33813,21 @@
         <v>0.42</v>
       </c>
       <c r="D201" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E201" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="12" t="s">
-        <v>519</v>
+        <v>151</v>
       </c>
       <c r="B202" s="11">
         <v>5.63</v>
@@ -33313,10 +33839,10 @@
         <v>0.15</v>
       </c>
       <c r="E202" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F202" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G202" s="11">
         <v>0.22</v>
@@ -33324,7 +33850,7 @@
     </row>
     <row r="203" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="12" t="s">
-        <v>514</v>
+        <v>144</v>
       </c>
       <c r="B203" s="11">
         <v>82.83</v>
@@ -33336,10 +33862,10 @@
         <v>7.25</v>
       </c>
       <c r="E203" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F203" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="G203" s="11">
         <v>6.6</v>
@@ -33347,16 +33873,16 @@
     </row>
     <row r="204" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12" t="s">
-        <v>503</v>
+        <v>137</v>
       </c>
       <c r="B204" s="11">
         <v>32.18</v>
       </c>
       <c r="C204" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="D204" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="E204" s="11">
         <v>9.34</v>
@@ -33365,23 +33891,35 @@
         <v>22.84</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="205" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="s">
-        <v>520</v>
-      </c>
-      <c r="B205" s="15"/>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
+        <v>152</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E205" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="206" spans="1:7" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="14" t="s">
-        <v>453</v>
+        <v>49</v>
       </c>
       <c r="B206" s="11">
         <v>8.84</v>
@@ -33404,7 +33942,7 @@
     </row>
     <row r="207" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="14" t="s">
-        <v>456</v>
+        <v>50</v>
       </c>
       <c r="B207" s="11">
         <v>114.69</v>
@@ -33427,18 +33965,30 @@
     </row>
     <row r="208" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="B208" s="15"/>
-      <c r="C208" s="15"/>
-      <c r="D208" s="15"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="B208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="209" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12" t="s">
-        <v>511</v>
+        <v>141</v>
       </c>
       <c r="B209" s="11">
         <v>4.22</v>
@@ -33461,7 +34011,7 @@
     </row>
     <row r="210" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="12" t="s">
-        <v>512</v>
+        <v>142</v>
       </c>
       <c r="B210" s="11">
         <v>1.27</v>
@@ -33470,21 +34020,21 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="D210" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E210" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G210" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="12" t="s">
-        <v>513</v>
+        <v>143</v>
       </c>
       <c r="B211" s="11">
         <v>3.35</v>
@@ -33496,7 +34046,7 @@
         <v>0.08</v>
       </c>
       <c r="E211" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F211" s="11">
         <v>0.21</v>
@@ -33507,7 +34057,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="12" t="s">
-        <v>522</v>
+        <v>154</v>
       </c>
       <c r="B212" s="11">
         <v>114.69</v>
@@ -33530,18 +34080,30 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="B213" s="15"/>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
+        <v>155</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D213" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E213" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G213" s="15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="12" t="s">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="B214" s="11">
         <v>4.41</v>
@@ -33553,7 +34115,7 @@
         <v>0.1</v>
       </c>
       <c r="E214" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F214" s="11">
         <v>0.24</v>
@@ -33564,7 +34126,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="12" t="s">
-        <v>517</v>
+        <v>148</v>
       </c>
       <c r="B215" s="11">
         <v>1.47</v>
@@ -33576,18 +34138,18 @@
         <v>0.04</v>
       </c>
       <c r="E215" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F215" s="11">
         <v>0.11</v>
       </c>
       <c r="G215" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="12" t="s">
-        <v>518</v>
+        <v>150</v>
       </c>
       <c r="B216" s="11">
         <v>0.36</v>
@@ -33596,21 +34158,21 @@
         <v>0.32</v>
       </c>
       <c r="D216" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="E216" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="F216" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>419</v>
+        <v>41</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="12" t="s">
-        <v>524</v>
+        <v>156</v>
       </c>
       <c r="B217" s="11">
         <v>2.6</v>
@@ -33622,7 +34184,7 @@
         <v>0.12</v>
       </c>
       <c r="E217" s="11" t="s">
-        <v>430</v>
+        <v>34</v>
       </c>
       <c r="F217" s="11">
         <v>0.34</v>
@@ -33633,7 +34195,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="12" t="s">
-        <v>522</v>
+        <v>154</v>
       </c>
       <c r="B218" s="11">
         <v>114.69</v>
@@ -33663,7 +34225,7 @@
       <c r="F219" s="13"/>
       <c r="G219" s="13"/>
     </row>
-    <row r="220" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="12"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -33673,17 +34235,25 @@
       <c r="G220" s="11"/>
     </row>
     <row r="221" spans="1:7" s="4" customFormat="1" ht="206.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="38" t="s">
-        <v>525</v>
-      </c>
-      <c r="B221" s="39"/>
-      <c r="C221" s="39"/>
-      <c r="D221" s="39"/>
-      <c r="E221" s="39"/>
-      <c r="F221" s="39"/>
-      <c r="G221" s="39"/>
-    </row>
-    <row r="222" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A221" s="36" t="s">
+        <v>393</v>
+      </c>
+      <c r="B221" s="36"/>
+      <c r="C221" s="36"/>
+      <c r="D221" s="36"/>
+      <c r="E221" s="36"/>
+      <c r="F221" s="36"/>
+      <c r="G221" s="36"/>
+    </row>
+    <row r="222" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A222"/>
+      <c r="B222"/>
+      <c r="C222"/>
+      <c r="D222"/>
+      <c r="E222"/>
+      <c r="F222"/>
+      <c r="G222"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -33697,7 +34267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -33714,21 +34284,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>526</v>
+        <v>162</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>527</v>
+        <v>164</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>528</v>
+        <v>165</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>529</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>530</v>
+        <v>58</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -33742,7 +34312,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -33756,7 +34326,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -33770,7 +34340,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>533</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -33784,7 +34354,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>534</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -33798,7 +34368,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>535</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -33812,7 +34382,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>536</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -33826,7 +34396,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -33840,7 +34410,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -33854,7 +34424,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>539</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -33868,7 +34438,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>540</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -33882,7 +34452,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -33896,7 +34466,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>542</v>
+        <v>57</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -33910,7 +34480,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>543</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -33924,7 +34494,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>544</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -33938,7 +34508,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>545</v>
+        <v>160</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -33952,7 +34522,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>546</v>
+        <v>161</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -34064,6 +34634,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>